--- a/BeaconDetector/examination.xlsx
+++ b/BeaconDetector/examination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\BeaconDetector\BeaconDetector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40D1948-7B1F-456D-A499-061300E6FF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCCD1EF-6DAC-46E5-8C02-97E40E73413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="検査環境" sheetId="6" r:id="rId1"/>
@@ -18,28 +18,32 @@
     <sheet name="収集" sheetId="80" r:id="rId3"/>
     <sheet name="時間登録" sheetId="81" r:id="rId4"/>
     <sheet name="映像" sheetId="82" r:id="rId5"/>
-    <sheet name="web画面" sheetId="83" r:id="rId6"/>
-    <sheet name="bi画面" sheetId="84" r:id="rId7"/>
+    <sheet name="bi画面" sheetId="83" r:id="rId6"/>
+    <sheet name="web画面" sheetId="84" r:id="rId7"/>
+    <sheet name="導線の確認システムテスト" sheetId="85" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">bi画面!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">bi画面!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'smart phone &amp; beacon'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">web画面!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">web画面!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">映像!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">時間登録!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">収集!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">bi画面!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">導線の確認システムテスト!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">bi画面!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'smart phone &amp; beacon'!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">web画面!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">web画面!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">映像!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">時間登録!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">収集!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">bi画面!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">導線の確認システムテスト!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">bi画面!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'smart phone &amp; beacon'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">web画面!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">web画面!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">映像!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">時間登録!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">収集!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">導線の確認システムテスト!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
   <si>
     <t>―</t>
   </si>
@@ -315,20 +319,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>IoTDSCoreUtilテストツール</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>CoreUtilTest.exeを実行して検査</t>
-    <rPh sb="17" eb="19">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンサ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>検査仕様書</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -381,38 +371,6 @@
     <rPh sb="0" eb="1">
       <t>フメイ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>5m</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>1m</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>10m</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>80cm</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>2m</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>3m</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>4m</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>8m</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -709,48 +667,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t xml:space="preserve">2beacon ビーコン移動
-2ビーコン移動した際の時間履歴登録が行われること
-</t>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="27" eb="33">
-      <t>ジカンリレキトウロク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t xml:space="preserve">5beacon ビーコン移動
-5ビーコン移動した際の時間履歴登録が行われること
-</t>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="27" eb="33">
-      <t>ジカンリレキトウロク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 ※最後のビーコンは、INから最後のセンサ情報までのカウント
 </t>
@@ -762,6 +678,386 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5beacon ビーコン移動
+1分毎に移動する
+5ビーコン移動した際の時間履歴登録が行われること
+</t>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フンゴト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="37" eb="43">
+      <t>ジカンリレキトウロク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2beacon ビーコン移動
+1分毎に移動する
+2ビーコン移動した際の時間履歴登録が行われること
+</t>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="37" eb="43">
+      <t>ジカンリレキトウロク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3ユーザ表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>3ユーザを時間を変更して登録</t>
+    <rPh sb="4" eb="6">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>導線画面</t>
+    <rPh sb="0" eb="3">
+      <t>ドウセンガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>1ユーザ表示</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>全ユーザ表示（可能なら）</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間フィルタ可能なら使用</t>
+    <rPh sb="0" eb="1">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>時間フィルタを使用</t>
+    <rPh sb="0" eb="1">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="1">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>積算画面</t>
+    <rPh sb="0" eb="1">
+      <t>セキサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>センサ位置カウント</t>
+    <rPh sb="3" eb="5">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>映像</t>
+    <rPh sb="0" eb="1">
+      <t>エイゾウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>24時間</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>5台同時動作で確認</t>
+    <rPh sb="0" eb="3">
+      <t>ダイドウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>48時間</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>WIFIからの距離</t>
+    <rPh sb="6" eb="8">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>　それぞれ異なる距離から録画し、同じようになること。</t>
+    <rPh sb="4" eb="5">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ロクガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>現地環境を再現</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンチカンキョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サイゲン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>現地に近い形で、ビーコンを配置、カメラ、Wifi、検証PCを設置</t>
+    <rPh sb="0" eb="1">
+      <t>ゲンチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンショウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">導線に沿って一定時間ごとに移動する。
+1から順番に行った場合
+</t>
+    <rPh sb="0" eb="1">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">導線に沿って一定時間ごとに移動する。
+1からそれぞれの番号に行った場合
+</t>
+    <rPh sb="0" eb="1">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">導線に沿って一定時間ごとに移動する。
+16からそれぞれの番号に行った場合
+</t>
+    <rPh sb="0" eb="1">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>順番に導線が引かれていること。</t>
+    <rPh sb="0" eb="1">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ルートは逆だが、上と同じ導線が取れること。</t>
+    <rPh sb="4" eb="5">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>80cm、1m、2m、3m、4m、5m、8m、10m
+距離ごとのビーコン受信結果は必要か？</t>
+    <rPh sb="27" eb="29">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ジュシンケッカ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>同時タイミングでの取得</t>
+    <rPh sb="0" eb="1">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>16個のセンサを拾っていること確認</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -2155,8 +2451,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2249,9 +2545,7 @@
       <c r="C11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>34</v>
-      </c>
+      <c r="D11" s="33"/>
       <c r="E11" s="23"/>
       <c r="F11" s="34"/>
     </row>
@@ -2288,9 +2582,7 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="C18" s="24"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19">
@@ -2379,12 +2671,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:I126"/>
+  <dimension ref="B1:I119"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2402,7 +2694,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -2417,13 +2709,13 @@
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
       <c r="F3" s="41">
-        <f>COUNTIF(F7:F71, "-")</f>
+        <f>COUNTIF(F7:F64, "-")</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="28" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="19"/>
@@ -2468,17 +2760,17 @@
     </row>
     <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="53">
-        <f t="shared" ref="B7:B38" si="0">ROW()-6</f>
+        <f t="shared" ref="B7:B31" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="59"/>
@@ -2492,10 +2784,10 @@
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="59"/>
@@ -2509,26 +2801,26 @@
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="49"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="49"/>
@@ -2536,233 +2828,223 @@
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="57" x14ac:dyDescent="0.15">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54" t="s">
+        <v>55</v>
+      </c>
       <c r="D11" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="55"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="57" x14ac:dyDescent="0.15">
       <c r="B12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="55"/>
+        <v>52</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="F12" s="49"/>
       <c r="G12" s="59"/>
       <c r="H12" s="59"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="57" x14ac:dyDescent="0.15">
       <c r="B13" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="55"/>
+        <v>54</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="F13" s="49"/>
       <c r="G13" s="59"/>
       <c r="H13" s="59"/>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="57" x14ac:dyDescent="0.15">
       <c r="B14" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="55"/>
+        <v>51</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>59</v>
+      </c>
       <c r="F14" s="49"/>
       <c r="G14" s="59"/>
       <c r="H14" s="59"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B15" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="54" t="s">
+        <v>56</v>
+      </c>
       <c r="D15" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="55"/>
+        <v>57</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>58</v>
+      </c>
       <c r="F15" s="49"/>
       <c r="G15" s="59"/>
       <c r="H15" s="59"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="57" x14ac:dyDescent="0.15">
       <c r="B16" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="54"/>
+      <c r="C16" s="54" t="s">
+        <v>63</v>
+      </c>
       <c r="D16" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="55"/>
+        <v>64</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>60</v>
+      </c>
       <c r="F16" s="49"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="57" x14ac:dyDescent="0.15">
       <c r="B17" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="54"/>
+      <c r="C17" s="54" t="s">
+        <v>62</v>
+      </c>
       <c r="D17" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="55"/>
+        <v>65</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>66</v>
+      </c>
       <c r="F17" s="49"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D18" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="55" t="s">
-        <v>69</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="E18" s="55"/>
       <c r="F18" s="49"/>
       <c r="G18" s="59"/>
       <c r="H18" s="59"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B19" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C19" s="54"/>
-      <c r="D19" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>69</v>
-      </c>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="49"/>
       <c r="G19" s="59"/>
       <c r="H19" s="59"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B20" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>69</v>
-      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="49"/>
       <c r="G20" s="59"/>
       <c r="H20" s="59"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B21" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C21" s="54"/>
-      <c r="D21" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>69</v>
-      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="49"/>
       <c r="G21" s="59"/>
       <c r="H21" s="59"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>68</v>
-      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="49"/>
       <c r="G22" s="59"/>
       <c r="H22" s="59"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B23" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="55" t="s">
-        <v>70</v>
-      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="49"/>
       <c r="G23" s="59"/>
       <c r="H23" s="59"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B24" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C24" s="54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="55" t="s">
-        <v>76</v>
-      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="49"/>
       <c r="G24" s="59"/>
       <c r="H24" s="59"/>
@@ -2861,7 +3143,7 @@
     </row>
     <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B32" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B32:B64" si="1">ROW()-6</f>
         <v>26</v>
       </c>
       <c r="C32" s="54"/>
@@ -2874,7 +3156,7 @@
     </row>
     <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B33" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C33" s="54"/>
@@ -2887,7 +3169,7 @@
     </row>
     <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B34" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C34" s="54"/>
@@ -2900,7 +3182,7 @@
     </row>
     <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B35" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C35" s="54"/>
@@ -2913,7 +3195,7 @@
     </row>
     <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C36" s="54"/>
@@ -2926,7 +3208,7 @@
     </row>
     <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C37" s="54"/>
@@ -2939,7 +3221,7 @@
     </row>
     <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38" s="53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C38" s="54"/>
@@ -2952,7 +3234,7 @@
     </row>
     <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B39" s="53">
-        <f t="shared" ref="B39:B71" si="1">ROW()-6</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C39" s="54"/>
@@ -3275,151 +3557,95 @@
       <c r="H63" s="59"/>
       <c r="I63" s="46"/>
     </row>
-    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B64" s="53">
+    <row r="64" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="43">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B65" s="53">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="46"/>
-    </row>
-    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B66" s="53">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="46"/>
-    </row>
-    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B67" s="53">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="46"/>
-    </row>
-    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B68" s="53">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="46"/>
-    </row>
-    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B69" s="53">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B70" s="53">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="46"/>
-    </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="43">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="47"/>
-    </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C64" s="45"/>
+      <c r="D64" s="56"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="47"/>
+    </row>
+    <row r="65" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="20"/>
+    </row>
+    <row r="66" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="20"/>
+    </row>
+    <row r="69" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="20"/>
+    </row>
+    <row r="70" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="20"/>
+    </row>
+    <row r="71" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="20"/>
+    </row>
+    <row r="72" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
@@ -3618,41 +3844,6 @@
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
       <c r="E119" s="20"/>
-    </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="20"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="20"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="20"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="20"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="20"/>
-    </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="20"/>
-    </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="20"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="20"/>
-    </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="20"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3698,7 +3889,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -3766,10 +3957,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="49"/>
@@ -3784,7 +3975,7 @@
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="55" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="49"/>
@@ -3798,10 +3989,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E9" s="55"/>
       <c r="F9" s="49"/>
@@ -3816,7 +4007,7 @@
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="49"/>
@@ -3831,7 +4022,7 @@
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="55" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="49"/>
@@ -3846,7 +4037,7 @@
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="55" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="49"/>
@@ -4919,10 +5110,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32283122-C4F8-41C2-A754-845647ED8890}">
   <dimension ref="B1:I126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4940,7 +5131,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -5008,47 +5199,47 @@
         <v>1</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E7" s="55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F7" s="49"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="85.5" x14ac:dyDescent="0.15">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="55" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F8" s="49"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="85.5" x14ac:dyDescent="0.15">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="55" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F9" s="49"/>
       <c r="G9" s="59"/>
@@ -6162,7 +6353,7 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6180,7 +6371,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -6247,8 +6438,12 @@
         <f t="shared" ref="B7:B38" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
+      <c r="C7" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="E7" s="55"/>
       <c r="F7" s="49"/>
       <c r="G7" s="59"/>
@@ -6261,7 +6456,9 @@
         <v>2</v>
       </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="D8" s="55" t="s">
+        <v>85</v>
+      </c>
       <c r="E8" s="55"/>
       <c r="F8" s="49"/>
       <c r="G8" s="59"/>
@@ -6274,7 +6471,9 @@
         <v>3</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="D9" s="55" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" s="55"/>
       <c r="F9" s="49"/>
       <c r="G9" s="59"/>
@@ -6287,7 +6486,9 @@
         <v>4</v>
       </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="55" t="s">
+        <v>88</v>
+      </c>
       <c r="E10" s="55"/>
       <c r="F10" s="49"/>
       <c r="G10" s="59"/>
@@ -6300,7 +6501,9 @@
         <v>5</v>
       </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="55" t="s">
+        <v>89</v>
+      </c>
       <c r="E11" s="55"/>
       <c r="F11" s="49"/>
       <c r="G11" s="59"/>
@@ -7388,7 +7591,7 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7406,7 +7609,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -7486,8 +7689,12 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="C8" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>74</v>
+      </c>
       <c r="E8" s="55"/>
       <c r="F8" s="49"/>
       <c r="G8" s="59"/>
@@ -7499,8 +7706,12 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="C9" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="E9" s="55"/>
       <c r="F9" s="49"/>
       <c r="G9" s="59"/>
@@ -7512,8 +7723,12 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
+      <c r="C10" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="E10" s="55"/>
       <c r="F10" s="49"/>
       <c r="G10" s="59"/>
@@ -7525,7 +7740,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="54" t="s">
+        <v>76</v>
+      </c>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="49"/>
@@ -7551,8 +7768,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
+      <c r="C13" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>78</v>
+      </c>
       <c r="E13" s="55"/>
       <c r="F13" s="49"/>
       <c r="G13" s="59"/>
@@ -7565,7 +7786,9 @@
         <v>8</v>
       </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="D14" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="E14" s="55"/>
       <c r="F14" s="49"/>
       <c r="G14" s="59"/>
@@ -7578,7 +7801,9 @@
         <v>9</v>
       </c>
       <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="D15" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="E15" s="55"/>
       <c r="F15" s="49"/>
       <c r="G15" s="59"/>
@@ -8632,7 +8857,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
@@ -9529,6 +9754,1246 @@
     <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B71" s="43">
         <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="C71" s="45"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="47"/>
+    </row>
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="20"/>
+    </row>
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="20"/>
+    </row>
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="20"/>
+    </row>
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="20"/>
+    </row>
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C96" s="20"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="20"/>
+    </row>
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C97" s="20"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="20"/>
+    </row>
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C98" s="20"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C101" s="20"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C102" s="20"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C103" s="20"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C104" s="20"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="20"/>
+    </row>
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="20"/>
+    </row>
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C108" s="20"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="20"/>
+    </row>
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="20"/>
+    </row>
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C110" s="20"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="20"/>
+    </row>
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="20"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="20"/>
+    </row>
+    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="20"/>
+      <c r="D112" s="21"/>
+      <c r="E112" s="20"/>
+    </row>
+    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C113" s="20"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="20"/>
+    </row>
+    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C114" s="20"/>
+      <c r="D114" s="21"/>
+      <c r="E114" s="20"/>
+    </row>
+    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="20"/>
+      <c r="D115" s="21"/>
+      <c r="E115" s="20"/>
+    </row>
+    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C116" s="20"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="20"/>
+    </row>
+    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C117" s="20"/>
+      <c r="D117" s="21"/>
+      <c r="E117" s="20"/>
+    </row>
+    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C118" s="20"/>
+      <c r="D118" s="21"/>
+      <c r="E118" s="20"/>
+    </row>
+    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C119" s="20"/>
+      <c r="D119" s="21"/>
+      <c r="E119" s="20"/>
+    </row>
+    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C120" s="20"/>
+      <c r="D120" s="21"/>
+      <c r="E120" s="20"/>
+    </row>
+    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C121" s="20"/>
+      <c r="D121" s="21"/>
+      <c r="E121" s="20"/>
+    </row>
+    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C122" s="20"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="20"/>
+    </row>
+    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C123" s="20"/>
+      <c r="D123" s="21"/>
+      <c r="E123" s="20"/>
+    </row>
+    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="20"/>
+      <c r="D124" s="21"/>
+      <c r="E124" s="20"/>
+    </row>
+    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C125" s="20"/>
+      <c r="D125" s="21"/>
+      <c r="E125" s="20"/>
+    </row>
+    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C126" s="20"/>
+      <c r="D126" s="21"/>
+      <c r="E126" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21739B-468A-46E1-ADF0-398241288E15}">
+  <dimension ref="B1:I126"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+    </row>
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="18"/>
+      <c r="F3" s="41">
+        <f>COUNTIF(F7:F71, "-")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="82"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>2</v>
+      </c>
+      <c r="H6" s="42">
+        <v>3</v>
+      </c>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="53">
+        <f t="shared" ref="B7:B70" si="0">ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="B9" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="B10" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+      <c r="B11" s="53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="55"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B12" s="53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B13" s="53">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B14" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B15" s="53">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B16" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B17" s="53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B18" s="53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B19" s="53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B20" s="53">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B21" s="53">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B22" s="53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B23" s="53">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B24" s="53">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="53">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B26" s="53">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B27" s="53">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B28" s="53">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="46"/>
+    </row>
+    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B29" s="53">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B30" s="53">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B31" s="53">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B32" s="53">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B33" s="53">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B34" s="53">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B35" s="53">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B36" s="53">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B37" s="53">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B38" s="53">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B39" s="53">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B40" s="53">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="46"/>
+    </row>
+    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B41" s="53">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B42" s="53">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="46"/>
+    </row>
+    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B43" s="53">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B44" s="53">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="46"/>
+    </row>
+    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B45" s="53">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="46"/>
+    </row>
+    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B46" s="53">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B47" s="53">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B48" s="53">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B49" s="53">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B50" s="53">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B51" s="53">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="46"/>
+    </row>
+    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B52" s="53">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="46"/>
+    </row>
+    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B53" s="53">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="46"/>
+    </row>
+    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B54" s="53">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B55" s="53">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="46"/>
+    </row>
+    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B56" s="53">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C56" s="54"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="46"/>
+    </row>
+    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B57" s="53">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C57" s="54"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="46"/>
+    </row>
+    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B58" s="53">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="59"/>
+      <c r="I58" s="46"/>
+    </row>
+    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B59" s="53">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="46"/>
+    </row>
+    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B60" s="53">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="49"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="46"/>
+    </row>
+    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B61" s="53">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="46"/>
+    </row>
+    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B62" s="53">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="46"/>
+    </row>
+    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B63" s="53">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C63" s="54"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B64" s="53">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C64" s="54"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="49"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="46"/>
+    </row>
+    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B65" s="53">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="46"/>
+    </row>
+    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B66" s="53">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C66" s="54"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="46"/>
+    </row>
+    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B67" s="53">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="46"/>
+    </row>
+    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B68" s="53">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="46"/>
+    </row>
+    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B69" s="53">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="49"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="46"/>
+    </row>
+    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B70" s="53">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C70" s="54"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="46"/>
+    </row>
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="43">
+        <f t="shared" ref="B71" si="1">ROW()-6</f>
         <v>65</v>
       </c>
       <c r="C71" s="45"/>
@@ -9979,6 +11444,27 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">Y3XF74WFDZR6-1516604052-817</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">
+      <Url>http://dws-doc/dev/_layouts/15/DocIdRedir.aspx?ID=Y3XF74WFDZR6-1516604052-817</Url>
+      <Description>Y3XF74WFDZR6-1516604052-817</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -10028,27 +11514,6 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">Y3XF74WFDZR6-1516604052-817</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">
-      <Url>http://dws-doc/dev/_layouts/15/DocIdRedir.aspx?ID=Y3XF74WFDZR6-1516604052-817</Url>
-      <Description>Y3XF74WFDZR6-1516604052-817</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69E5F02-1CF8-4EDA-9224-974D0C3A0AA9}">
   <ds:schemaRefs>
@@ -10068,9 +11533,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A2F329-6D91-4BCC-BC92-119BAC84417D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2461529D-F5B9-4CBF-A9BB-15425F80202A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d6efe66-988e-483a-b438-1c50e9cc962c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10084,17 +11557,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2461529D-F5B9-4CBF-A9BB-15425F80202A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A2F329-6D91-4BCC-BC92-119BAC84417D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d6efe66-988e-483a-b438-1c50e9cc962c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/BeaconDetector/examination.xlsx
+++ b/BeaconDetector/examination.xlsx
@@ -8,42 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\BeaconDetector\BeaconDetector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCCD1EF-6DAC-46E5-8C02-97E40E73413F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34207C1-1D1E-4A3A-B58C-E8930B4A5F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="検査環境" sheetId="6" r:id="rId1"/>
     <sheet name="smart phone &amp; beacon" sheetId="73" r:id="rId2"/>
-    <sheet name="収集" sheetId="80" r:id="rId3"/>
-    <sheet name="時間登録" sheetId="81" r:id="rId4"/>
+    <sheet name="通知データ収集" sheetId="80" r:id="rId3"/>
+    <sheet name="導線履歴登録" sheetId="81" r:id="rId4"/>
     <sheet name="映像" sheetId="82" r:id="rId5"/>
-    <sheet name="bi画面" sheetId="83" r:id="rId6"/>
-    <sheet name="web画面" sheetId="84" r:id="rId7"/>
-    <sheet name="導線の確認システムテスト" sheetId="85" r:id="rId8"/>
+    <sheet name="bi画面、確認" sheetId="83" r:id="rId6"/>
+    <sheet name="導線の確認システムテスト" sheetId="85" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">bi画面!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'bi画面、確認'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'smart phone &amp; beacon'!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">web画面!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">映像!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">時間登録!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">収集!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">導線の確認システムテスト!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">bi画面!$A$1:$I$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">通知データ収集!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">導線の確認システムテスト!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">導線履歴登録!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'bi画面、確認'!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'smart phone &amp; beacon'!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">web画面!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">映像!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">時間登録!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">収集!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">導線の確認システムテスト!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">bi画面!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">通知データ収集!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">導線の確認システムテスト!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">導線履歴登録!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'bi画面、確認'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'smart phone &amp; beacon'!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">web画面!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">映像!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">時間登録!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">収集!$1:$6</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="7">導線の確認システムテスト!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">通知データ収集!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">導線の確認システムテスト!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">導線履歴登録!$1:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
   <si>
     <t>―</t>
   </si>
@@ -2451,28 +2447,28 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.25" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="8" width="13.875" customWidth="1"/>
+    <col min="1" max="2" width="2.21875" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" customWidth="1"/>
+    <col min="4" max="8" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="74" t="s">
         <v>9</v>
       </c>
@@ -2481,7 +2477,7 @@
       <c r="F4" s="74"/>
       <c r="G4" s="74"/>
     </row>
-    <row r="5" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>22</v>
@@ -2497,7 +2493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C6" s="22" t="s">
         <v>31</v>
       </c>
@@ -2515,7 +2511,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4"/>
       <c r="D7" s="26" t="s">
         <v>30</v>
@@ -2525,7 +2521,7 @@
       <c r="G7" s="71"/>
       <c r="H7" s="68"/>
     </row>
-    <row r="9" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="74" t="s">
         <v>27</v>
       </c>
@@ -2533,7 +2529,7 @@
       <c r="E9" s="74"/>
       <c r="F9" s="74"/>
     </row>
-    <row r="10" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
         <v>10</v>
       </c>
@@ -2541,7 +2537,7 @@
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
     </row>
-    <row r="11" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C11" s="32" t="s">
         <v>33</v>
       </c>
@@ -2549,73 +2545,73 @@
       <c r="E11" s="23"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="35"/>
       <c r="D12" s="39"/>
       <c r="E12" s="62"/>
       <c r="F12" s="36"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
       <c r="E13" s="48"/>
       <c r="F13" s="52"/>
     </row>
-    <row r="14" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="37"/>
       <c r="D14" s="40"/>
       <c r="E14" s="15"/>
       <c r="F14" s="38"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="23"/>
       <c r="D15" s="8"/>
       <c r="E15" s="23"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="24"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" s="24"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
       <c r="C20" s="24"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="24"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C22" s="24"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C23" s="24"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="72" t="s">
         <v>20</v>
       </c>
@@ -2623,7 +2619,7 @@
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="11" t="s">
         <v>1</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C30" s="14" t="s">
         <v>4</v>
       </c>
@@ -2651,7 +2647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" s="7"/>
     </row>
   </sheetData>
@@ -2676,35 +2672,35 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="3.625" style="41"/>
+    <col min="1" max="1" width="3.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
     </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
@@ -2713,14 +2709,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="81" t="s">
         <v>12</v>
       </c>
@@ -2742,7 +2738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -2758,7 +2754,7 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
         <f t="shared" ref="B7:B31" si="0">ROW()-6</f>
         <v>1</v>
@@ -2777,7 +2773,7 @@
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2794,7 +2790,7 @@
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="43.2" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2811,7 +2807,7 @@
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="28.8" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2828,7 +2824,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2847,7 +2843,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2864,7 +2860,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2881,7 +2877,7 @@
       <c r="H13" s="59"/>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2898,7 +2894,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="28.8" x14ac:dyDescent="0.2">
       <c r="B15" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2917,7 +2913,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2936,7 +2932,7 @@
       <c r="H16" s="59"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2955,7 +2951,7 @@
       <c r="H17" s="59"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2972,7 +2968,7 @@
       <c r="H18" s="59"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2985,7 +2981,7 @@
       <c r="H19" s="59"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2998,7 +2994,7 @@
       <c r="H20" s="59"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3011,7 +3007,7 @@
       <c r="H21" s="59"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3024,7 +3020,7 @@
       <c r="H22" s="59"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3037,7 +3033,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3050,7 +3046,7 @@
       <c r="H24" s="59"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3063,7 +3059,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3076,7 +3072,7 @@
       <c r="H26" s="59"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3089,7 +3085,7 @@
       <c r="H27" s="59"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3102,7 +3098,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3115,7 +3111,7 @@
       <c r="H29" s="59"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3128,7 +3124,7 @@
       <c r="H30" s="59"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3141,7 +3137,7 @@
       <c r="H31" s="59"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <f t="shared" ref="B32:B64" si="1">ROW()-6</f>
         <v>26</v>
@@ -3154,7 +3150,7 @@
       <c r="H32" s="59"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -3167,7 +3163,7 @@
       <c r="H33" s="59"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -3180,7 +3176,7 @@
       <c r="H34" s="59"/>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -3193,7 +3189,7 @@
       <c r="H35" s="59"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -3206,7 +3202,7 @@
       <c r="H36" s="59"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -3219,7 +3215,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -3232,7 +3228,7 @@
       <c r="H38" s="59"/>
       <c r="I38" s="46"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -3245,7 +3241,7 @@
       <c r="H39" s="59"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -3258,7 +3254,7 @@
       <c r="H40" s="59"/>
       <c r="I40" s="46"/>
     </row>
-    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -3271,7 +3267,7 @@
       <c r="H41" s="59"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -3284,7 +3280,7 @@
       <c r="H42" s="59"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -3297,7 +3293,7 @@
       <c r="H43" s="59"/>
       <c r="I43" s="46"/>
     </row>
-    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3310,7 +3306,7 @@
       <c r="H44" s="59"/>
       <c r="I44" s="46"/>
     </row>
-    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -3323,7 +3319,7 @@
       <c r="H45" s="59"/>
       <c r="I45" s="46"/>
     </row>
-    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -3336,7 +3332,7 @@
       <c r="H46" s="59"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3349,7 +3345,7 @@
       <c r="H47" s="59"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B48" s="53">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -3362,7 +3358,7 @@
       <c r="H48" s="59"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B49" s="53">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -3375,7 +3371,7 @@
       <c r="H49" s="59"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B50" s="53">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -3388,7 +3384,7 @@
       <c r="H50" s="59"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B51" s="53">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3401,7 +3397,7 @@
       <c r="H51" s="59"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B52" s="53">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -3414,7 +3410,7 @@
       <c r="H52" s="59"/>
       <c r="I52" s="46"/>
     </row>
-    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B53" s="53">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -3427,7 +3423,7 @@
       <c r="H53" s="59"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B54" s="53">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -3440,7 +3436,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B55" s="53">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -3453,7 +3449,7 @@
       <c r="H55" s="59"/>
       <c r="I55" s="46"/>
     </row>
-    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B56" s="53">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -3466,7 +3462,7 @@
       <c r="H56" s="59"/>
       <c r="I56" s="46"/>
     </row>
-    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B57" s="53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -3479,7 +3475,7 @@
       <c r="H57" s="59"/>
       <c r="I57" s="46"/>
     </row>
-    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B58" s="53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -3492,7 +3488,7 @@
       <c r="H58" s="59"/>
       <c r="I58" s="46"/>
     </row>
-    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B59" s="53">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -3505,7 +3501,7 @@
       <c r="H59" s="59"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B60" s="53">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -3518,7 +3514,7 @@
       <c r="H60" s="59"/>
       <c r="I60" s="46"/>
     </row>
-    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B61" s="53">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -3531,7 +3527,7 @@
       <c r="H61" s="59"/>
       <c r="I61" s="46"/>
     </row>
-    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B62" s="53">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -3544,7 +3540,7 @@
       <c r="H62" s="59"/>
       <c r="I62" s="46"/>
     </row>
-    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B63" s="53">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -3557,7 +3553,7 @@
       <c r="H63" s="59"/>
       <c r="I63" s="46"/>
     </row>
-    <row r="64" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="43">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -3570,277 +3566,277 @@
       <c r="H64" s="58"/>
       <c r="I64" s="47"/>
     </row>
-    <row r="65" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="20"/>
       <c r="D65" s="21"/>
       <c r="E65" s="20"/>
     </row>
-    <row r="66" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="20"/>
       <c r="D66" s="21"/>
       <c r="E66" s="20"/>
     </row>
-    <row r="67" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="20"/>
       <c r="D67" s="21"/>
       <c r="E67" s="20"/>
     </row>
-    <row r="68" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="20"/>
       <c r="D68" s="21"/>
       <c r="E68" s="20"/>
     </row>
-    <row r="69" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="20"/>
       <c r="D69" s="21"/>
       <c r="E69" s="20"/>
     </row>
-    <row r="70" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="20"/>
       <c r="D70" s="21"/>
       <c r="E70" s="20"/>
     </row>
-    <row r="71" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="20"/>
       <c r="D71" s="21"/>
       <c r="E71" s="20"/>
     </row>
-    <row r="72" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="20"/>
       <c r="D81" s="21"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="20"/>
       <c r="D82" s="21"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
       <c r="D84" s="21"/>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="20"/>
     </row>
-    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="20"/>
     </row>
-    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="20"/>
       <c r="D88" s="21"/>
       <c r="E88" s="20"/>
     </row>
-    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="20"/>
       <c r="D90" s="21"/>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="20"/>
       <c r="D92" s="21"/>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
       <c r="E94" s="20"/>
     </row>
-    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="20"/>
     </row>
-    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="20"/>
     </row>
-    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
       <c r="E107" s="20"/>
     </row>
-    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
       <c r="E110" s="20"/>
     </row>
-    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
       <c r="E113" s="20"/>
     </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
       <c r="E115" s="20"/>
     </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
       <c r="E119" s="20"/>
@@ -3874,32 +3870,32 @@
       <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="3.625" style="41"/>
+    <col min="1" max="1" width="3.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
     </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
@@ -3908,12 +3904,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="81" t="s">
         <v>12</v>
       </c>
@@ -3935,7 +3931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -3951,7 +3947,7 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
         <f t="shared" ref="B7:B38" si="0">ROW()-6</f>
         <v>1</v>
@@ -3968,7 +3964,7 @@
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3983,7 +3979,7 @@
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -4000,7 +3996,7 @@
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -4015,7 +4011,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -4030,7 +4026,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -4045,7 +4041,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -4058,7 +4054,7 @@
       <c r="H13" s="59"/>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -4071,7 +4067,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B15" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -4084,7 +4080,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -4097,7 +4093,7 @@
       <c r="H16" s="59"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4110,7 +4106,7 @@
       <c r="H17" s="59"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4123,7 +4119,7 @@
       <c r="H18" s="59"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -4136,7 +4132,7 @@
       <c r="H19" s="59"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -4149,7 +4145,7 @@
       <c r="H20" s="59"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4162,7 +4158,7 @@
       <c r="H21" s="59"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4175,7 +4171,7 @@
       <c r="H22" s="59"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4188,7 +4184,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4201,7 +4197,7 @@
       <c r="H24" s="59"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4214,7 +4210,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -4227,7 +4223,7 @@
       <c r="H26" s="59"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -4240,7 +4236,7 @@
       <c r="H27" s="59"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4253,7 +4249,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4266,7 +4262,7 @@
       <c r="H29" s="59"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -4279,7 +4275,7 @@
       <c r="H30" s="59"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -4292,7 +4288,7 @@
       <c r="H31" s="59"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -4305,7 +4301,7 @@
       <c r="H32" s="59"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -4318,7 +4314,7 @@
       <c r="H33" s="59"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -4331,7 +4327,7 @@
       <c r="H34" s="59"/>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -4344,7 +4340,7 @@
       <c r="H35" s="59"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -4357,7 +4353,7 @@
       <c r="H36" s="59"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -4370,7 +4366,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -4383,7 +4379,7 @@
       <c r="H38" s="59"/>
       <c r="I38" s="46"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <f t="shared" ref="B39:B71" si="1">ROW()-6</f>
         <v>33</v>
@@ -4396,7 +4392,7 @@
       <c r="H39" s="59"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -4409,7 +4405,7 @@
       <c r="H40" s="59"/>
       <c r="I40" s="46"/>
     </row>
-    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -4422,7 +4418,7 @@
       <c r="H41" s="59"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -4435,7 +4431,7 @@
       <c r="H42" s="59"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -4448,7 +4444,7 @@
       <c r="H43" s="59"/>
       <c r="I43" s="46"/>
     </row>
-    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -4461,7 +4457,7 @@
       <c r="H44" s="59"/>
       <c r="I44" s="46"/>
     </row>
-    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -4474,7 +4470,7 @@
       <c r="H45" s="59"/>
       <c r="I45" s="46"/>
     </row>
-    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -4487,7 +4483,7 @@
       <c r="H46" s="59"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -4500,7 +4496,7 @@
       <c r="H47" s="59"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B48" s="53">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -4513,7 +4509,7 @@
       <c r="H48" s="59"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B49" s="53">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -4526,7 +4522,7 @@
       <c r="H49" s="59"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B50" s="53">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -4539,7 +4535,7 @@
       <c r="H50" s="59"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B51" s="53">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -4552,7 +4548,7 @@
       <c r="H51" s="59"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B52" s="53">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -4565,7 +4561,7 @@
       <c r="H52" s="59"/>
       <c r="I52" s="46"/>
     </row>
-    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B53" s="53">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -4578,7 +4574,7 @@
       <c r="H53" s="59"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B54" s="53">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -4591,7 +4587,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B55" s="53">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -4604,7 +4600,7 @@
       <c r="H55" s="59"/>
       <c r="I55" s="46"/>
     </row>
-    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B56" s="53">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -4617,7 +4613,7 @@
       <c r="H56" s="59"/>
       <c r="I56" s="46"/>
     </row>
-    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B57" s="53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -4630,7 +4626,7 @@
       <c r="H57" s="59"/>
       <c r="I57" s="46"/>
     </row>
-    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B58" s="53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -4643,7 +4639,7 @@
       <c r="H58" s="59"/>
       <c r="I58" s="46"/>
     </row>
-    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B59" s="53">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -4656,7 +4652,7 @@
       <c r="H59" s="59"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B60" s="53">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -4669,7 +4665,7 @@
       <c r="H60" s="59"/>
       <c r="I60" s="46"/>
     </row>
-    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B61" s="53">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -4682,7 +4678,7 @@
       <c r="H61" s="59"/>
       <c r="I61" s="46"/>
     </row>
-    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B62" s="53">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -4695,7 +4691,7 @@
       <c r="H62" s="59"/>
       <c r="I62" s="46"/>
     </row>
-    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B63" s="53">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -4708,7 +4704,7 @@
       <c r="H63" s="59"/>
       <c r="I63" s="46"/>
     </row>
-    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B64" s="53">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -4721,7 +4717,7 @@
       <c r="H64" s="59"/>
       <c r="I64" s="46"/>
     </row>
-    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B65" s="53">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -4734,7 +4730,7 @@
       <c r="H65" s="59"/>
       <c r="I65" s="46"/>
     </row>
-    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B66" s="53">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -4747,7 +4743,7 @@
       <c r="H66" s="59"/>
       <c r="I66" s="46"/>
     </row>
-    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B67" s="53">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -4760,7 +4756,7 @@
       <c r="H67" s="59"/>
       <c r="I67" s="46"/>
     </row>
-    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B68" s="53">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -4773,7 +4769,7 @@
       <c r="H68" s="59"/>
       <c r="I68" s="46"/>
     </row>
-    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B69" s="53">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -4786,7 +4782,7 @@
       <c r="H69" s="59"/>
       <c r="I69" s="46"/>
     </row>
-    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B70" s="53">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -4799,7 +4795,7 @@
       <c r="H70" s="59"/>
       <c r="I70" s="46"/>
     </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="43">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -4812,277 +4808,277 @@
       <c r="H71" s="58"/>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="20"/>
       <c r="D81" s="21"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="20"/>
       <c r="D82" s="21"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
       <c r="D84" s="21"/>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="20"/>
     </row>
-    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="20"/>
     </row>
-    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="20"/>
       <c r="D88" s="21"/>
       <c r="E88" s="20"/>
     </row>
-    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="20"/>
       <c r="D90" s="21"/>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="20"/>
       <c r="D92" s="21"/>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
       <c r="E94" s="20"/>
     </row>
-    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="20"/>
     </row>
-    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="20"/>
     </row>
-    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
       <c r="E107" s="20"/>
     </row>
-    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
       <c r="E110" s="20"/>
     </row>
-    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
       <c r="E113" s="20"/>
     </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
       <c r="E115" s="20"/>
     </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
       <c r="E119" s="20"/>
     </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="20"/>
       <c r="D120" s="21"/>
       <c r="E120" s="20"/>
     </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="20"/>
       <c r="D121" s="21"/>
       <c r="E121" s="20"/>
     </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="20"/>
       <c r="D122" s="21"/>
       <c r="E122" s="20"/>
     </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="20"/>
       <c r="D123" s="21"/>
       <c r="E123" s="20"/>
     </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="20"/>
       <c r="D124" s="21"/>
       <c r="E124" s="20"/>
     </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="20"/>
       <c r="D125" s="21"/>
       <c r="E125" s="20"/>
     </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="20"/>
       <c r="D126" s="21"/>
       <c r="E126" s="20"/>
@@ -5113,35 +5109,35 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="3.625" style="41"/>
+    <col min="1" max="1" width="3.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
     </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
@@ -5150,12 +5146,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="81" t="s">
         <v>12</v>
       </c>
@@ -5177,7 +5173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -5193,7 +5189,7 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="2:9" ht="57" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
         <f t="shared" ref="B7:B38" si="0">ROW()-6</f>
         <v>1</v>
@@ -5212,7 +5208,7 @@
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="86.4" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -5229,7 +5225,7 @@
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="86.4" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -5246,7 +5242,7 @@
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5259,7 +5255,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5272,7 +5268,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5285,7 +5281,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5298,7 +5294,7 @@
       <c r="H13" s="59"/>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5311,7 +5307,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B15" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5324,7 +5320,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5337,7 +5333,7 @@
       <c r="H16" s="59"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5350,7 +5346,7 @@
       <c r="H17" s="59"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5363,7 +5359,7 @@
       <c r="H18" s="59"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5376,7 +5372,7 @@
       <c r="H19" s="59"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5389,7 +5385,7 @@
       <c r="H20" s="59"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5402,7 +5398,7 @@
       <c r="H21" s="59"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5415,7 +5411,7 @@
       <c r="H22" s="59"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5428,7 +5424,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5441,7 +5437,7 @@
       <c r="H24" s="59"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5454,7 +5450,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5467,7 +5463,7 @@
       <c r="H26" s="59"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5480,7 +5476,7 @@
       <c r="H27" s="59"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5493,7 +5489,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5506,7 +5502,7 @@
       <c r="H29" s="59"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5519,7 +5515,7 @@
       <c r="H30" s="59"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5532,7 +5528,7 @@
       <c r="H31" s="59"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5545,7 +5541,7 @@
       <c r="H32" s="59"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5558,7 +5554,7 @@
       <c r="H33" s="59"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5571,7 +5567,7 @@
       <c r="H34" s="59"/>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5584,7 +5580,7 @@
       <c r="H35" s="59"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5597,7 +5593,7 @@
       <c r="H36" s="59"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5610,7 +5606,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5623,7 +5619,7 @@
       <c r="H38" s="59"/>
       <c r="I38" s="46"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <f t="shared" ref="B39:B71" si="1">ROW()-6</f>
         <v>33</v>
@@ -5636,7 +5632,7 @@
       <c r="H39" s="59"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -5649,7 +5645,7 @@
       <c r="H40" s="59"/>
       <c r="I40" s="46"/>
     </row>
-    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -5662,7 +5658,7 @@
       <c r="H41" s="59"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -5675,7 +5671,7 @@
       <c r="H42" s="59"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -5688,7 +5684,7 @@
       <c r="H43" s="59"/>
       <c r="I43" s="46"/>
     </row>
-    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -5701,7 +5697,7 @@
       <c r="H44" s="59"/>
       <c r="I44" s="46"/>
     </row>
-    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -5714,7 +5710,7 @@
       <c r="H45" s="59"/>
       <c r="I45" s="46"/>
     </row>
-    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -5727,7 +5723,7 @@
       <c r="H46" s="59"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -5740,7 +5736,7 @@
       <c r="H47" s="59"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B48" s="53">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -5753,7 +5749,7 @@
       <c r="H48" s="59"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B49" s="53">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -5766,7 +5762,7 @@
       <c r="H49" s="59"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B50" s="53">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -5779,7 +5775,7 @@
       <c r="H50" s="59"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B51" s="53">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -5792,7 +5788,7 @@
       <c r="H51" s="59"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B52" s="53">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -5805,7 +5801,7 @@
       <c r="H52" s="59"/>
       <c r="I52" s="46"/>
     </row>
-    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B53" s="53">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -5818,7 +5814,7 @@
       <c r="H53" s="59"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B54" s="53">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -5831,7 +5827,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B55" s="53">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -5844,7 +5840,7 @@
       <c r="H55" s="59"/>
       <c r="I55" s="46"/>
     </row>
-    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B56" s="53">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -5857,7 +5853,7 @@
       <c r="H56" s="59"/>
       <c r="I56" s="46"/>
     </row>
-    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B57" s="53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -5870,7 +5866,7 @@
       <c r="H57" s="59"/>
       <c r="I57" s="46"/>
     </row>
-    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B58" s="53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -5883,7 +5879,7 @@
       <c r="H58" s="59"/>
       <c r="I58" s="46"/>
     </row>
-    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B59" s="53">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -5896,7 +5892,7 @@
       <c r="H59" s="59"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B60" s="53">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -5909,7 +5905,7 @@
       <c r="H60" s="59"/>
       <c r="I60" s="46"/>
     </row>
-    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B61" s="53">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -5922,7 +5918,7 @@
       <c r="H61" s="59"/>
       <c r="I61" s="46"/>
     </row>
-    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B62" s="53">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -5935,7 +5931,7 @@
       <c r="H62" s="59"/>
       <c r="I62" s="46"/>
     </row>
-    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B63" s="53">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5948,7 +5944,7 @@
       <c r="H63" s="59"/>
       <c r="I63" s="46"/>
     </row>
-    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B64" s="53">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -5961,7 +5957,7 @@
       <c r="H64" s="59"/>
       <c r="I64" s="46"/>
     </row>
-    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B65" s="53">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -5974,7 +5970,7 @@
       <c r="H65" s="59"/>
       <c r="I65" s="46"/>
     </row>
-    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B66" s="53">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5987,7 +5983,7 @@
       <c r="H66" s="59"/>
       <c r="I66" s="46"/>
     </row>
-    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B67" s="53">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -6000,7 +5996,7 @@
       <c r="H67" s="59"/>
       <c r="I67" s="46"/>
     </row>
-    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B68" s="53">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -6013,7 +6009,7 @@
       <c r="H68" s="59"/>
       <c r="I68" s="46"/>
     </row>
-    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B69" s="53">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -6026,7 +6022,7 @@
       <c r="H69" s="59"/>
       <c r="I69" s="46"/>
     </row>
-    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B70" s="53">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -6039,7 +6035,7 @@
       <c r="H70" s="59"/>
       <c r="I70" s="46"/>
     </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="43">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -6052,277 +6048,277 @@
       <c r="H71" s="58"/>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="20"/>
       <c r="D81" s="21"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="20"/>
       <c r="D82" s="21"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
       <c r="D84" s="21"/>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="20"/>
     </row>
-    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="20"/>
     </row>
-    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="20"/>
       <c r="D88" s="21"/>
       <c r="E88" s="20"/>
     </row>
-    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="20"/>
       <c r="D90" s="21"/>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="20"/>
       <c r="D92" s="21"/>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
       <c r="E94" s="20"/>
     </row>
-    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="20"/>
     </row>
-    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="20"/>
     </row>
-    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
       <c r="E107" s="20"/>
     </row>
-    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
       <c r="E110" s="20"/>
     </row>
-    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
       <c r="E113" s="20"/>
     </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
       <c r="E115" s="20"/>
     </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
       <c r="E119" s="20"/>
     </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="20"/>
       <c r="D120" s="21"/>
       <c r="E120" s="20"/>
     </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="20"/>
       <c r="D121" s="21"/>
       <c r="E121" s="20"/>
     </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="20"/>
       <c r="D122" s="21"/>
       <c r="E122" s="20"/>
     </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="20"/>
       <c r="D123" s="21"/>
       <c r="E123" s="20"/>
     </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="20"/>
       <c r="D124" s="21"/>
       <c r="E124" s="20"/>
     </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="20"/>
       <c r="D125" s="21"/>
       <c r="E125" s="20"/>
     </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="20"/>
       <c r="D126" s="21"/>
       <c r="E126" s="20"/>
@@ -6353,35 +6349,35 @@
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="3.625" style="41"/>
+    <col min="1" max="1" width="3.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
     </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
@@ -6390,12 +6386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="81" t="s">
         <v>12</v>
       </c>
@@ -6417,7 +6413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -6433,7 +6429,7 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
         <f t="shared" ref="B7:B38" si="0">ROW()-6</f>
         <v>1</v>
@@ -6450,7 +6446,7 @@
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6465,7 +6461,7 @@
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6480,7 +6476,7 @@
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6495,7 +6491,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6510,7 +6506,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6523,7 +6519,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6536,7 +6532,7 @@
       <c r="H13" s="59"/>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6549,7 +6545,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B15" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6562,7 +6558,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6575,7 +6571,7 @@
       <c r="H16" s="59"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6588,7 +6584,7 @@
       <c r="H17" s="59"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6601,7 +6597,7 @@
       <c r="H18" s="59"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6614,7 +6610,7 @@
       <c r="H19" s="59"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6627,7 +6623,7 @@
       <c r="H20" s="59"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6640,7 +6636,7 @@
       <c r="H21" s="59"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6653,7 +6649,7 @@
       <c r="H22" s="59"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6666,7 +6662,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6679,7 +6675,7 @@
       <c r="H24" s="59"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6692,7 +6688,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6705,7 +6701,7 @@
       <c r="H26" s="59"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6718,7 +6714,7 @@
       <c r="H27" s="59"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6731,7 +6727,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6744,7 +6740,7 @@
       <c r="H29" s="59"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6757,7 +6753,7 @@
       <c r="H30" s="59"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6770,7 +6766,7 @@
       <c r="H31" s="59"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6783,7 +6779,7 @@
       <c r="H32" s="59"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6796,7 +6792,7 @@
       <c r="H33" s="59"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6809,7 +6805,7 @@
       <c r="H34" s="59"/>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6822,7 +6818,7 @@
       <c r="H35" s="59"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6835,7 +6831,7 @@
       <c r="H36" s="59"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6848,7 +6844,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6861,7 +6857,7 @@
       <c r="H38" s="59"/>
       <c r="I38" s="46"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <f t="shared" ref="B39:B71" si="1">ROW()-6</f>
         <v>33</v>
@@ -6874,7 +6870,7 @@
       <c r="H39" s="59"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -6887,7 +6883,7 @@
       <c r="H40" s="59"/>
       <c r="I40" s="46"/>
     </row>
-    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -6900,7 +6896,7 @@
       <c r="H41" s="59"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -6913,7 +6909,7 @@
       <c r="H42" s="59"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -6926,7 +6922,7 @@
       <c r="H43" s="59"/>
       <c r="I43" s="46"/>
     </row>
-    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -6939,7 +6935,7 @@
       <c r="H44" s="59"/>
       <c r="I44" s="46"/>
     </row>
-    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -6952,7 +6948,7 @@
       <c r="H45" s="59"/>
       <c r="I45" s="46"/>
     </row>
-    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -6965,7 +6961,7 @@
       <c r="H46" s="59"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -6978,7 +6974,7 @@
       <c r="H47" s="59"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B48" s="53">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -6991,7 +6987,7 @@
       <c r="H48" s="59"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B49" s="53">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -7004,7 +7000,7 @@
       <c r="H49" s="59"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B50" s="53">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -7017,7 +7013,7 @@
       <c r="H50" s="59"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B51" s="53">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -7030,7 +7026,7 @@
       <c r="H51" s="59"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B52" s="53">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -7043,7 +7039,7 @@
       <c r="H52" s="59"/>
       <c r="I52" s="46"/>
     </row>
-    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B53" s="53">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -7056,7 +7052,7 @@
       <c r="H53" s="59"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B54" s="53">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -7069,7 +7065,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B55" s="53">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -7082,7 +7078,7 @@
       <c r="H55" s="59"/>
       <c r="I55" s="46"/>
     </row>
-    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B56" s="53">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -7095,7 +7091,7 @@
       <c r="H56" s="59"/>
       <c r="I56" s="46"/>
     </row>
-    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B57" s="53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -7108,7 +7104,7 @@
       <c r="H57" s="59"/>
       <c r="I57" s="46"/>
     </row>
-    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B58" s="53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -7121,7 +7117,7 @@
       <c r="H58" s="59"/>
       <c r="I58" s="46"/>
     </row>
-    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B59" s="53">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -7134,7 +7130,7 @@
       <c r="H59" s="59"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B60" s="53">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -7147,7 +7143,7 @@
       <c r="H60" s="59"/>
       <c r="I60" s="46"/>
     </row>
-    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B61" s="53">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -7160,7 +7156,7 @@
       <c r="H61" s="59"/>
       <c r="I61" s="46"/>
     </row>
-    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B62" s="53">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -7173,7 +7169,7 @@
       <c r="H62" s="59"/>
       <c r="I62" s="46"/>
     </row>
-    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B63" s="53">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -7186,7 +7182,7 @@
       <c r="H63" s="59"/>
       <c r="I63" s="46"/>
     </row>
-    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B64" s="53">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -7199,7 +7195,7 @@
       <c r="H64" s="59"/>
       <c r="I64" s="46"/>
     </row>
-    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B65" s="53">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -7212,7 +7208,7 @@
       <c r="H65" s="59"/>
       <c r="I65" s="46"/>
     </row>
-    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B66" s="53">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -7225,7 +7221,7 @@
       <c r="H66" s="59"/>
       <c r="I66" s="46"/>
     </row>
-    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B67" s="53">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -7238,7 +7234,7 @@
       <c r="H67" s="59"/>
       <c r="I67" s="46"/>
     </row>
-    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B68" s="53">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -7251,7 +7247,7 @@
       <c r="H68" s="59"/>
       <c r="I68" s="46"/>
     </row>
-    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B69" s="53">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -7264,7 +7260,7 @@
       <c r="H69" s="59"/>
       <c r="I69" s="46"/>
     </row>
-    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B70" s="53">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -7277,7 +7273,7 @@
       <c r="H70" s="59"/>
       <c r="I70" s="46"/>
     </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="43">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -7290,277 +7286,277 @@
       <c r="H71" s="58"/>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="20"/>
       <c r="D81" s="21"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="20"/>
       <c r="D82" s="21"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
       <c r="D84" s="21"/>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="20"/>
     </row>
-    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="20"/>
     </row>
-    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="20"/>
       <c r="D88" s="21"/>
       <c r="E88" s="20"/>
     </row>
-    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="20"/>
       <c r="D90" s="21"/>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="20"/>
       <c r="D92" s="21"/>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
       <c r="E94" s="20"/>
     </row>
-    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="20"/>
     </row>
-    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="20"/>
     </row>
-    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
       <c r="E107" s="20"/>
     </row>
-    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
       <c r="E110" s="20"/>
     </row>
-    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
       <c r="E113" s="20"/>
     </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
       <c r="E115" s="20"/>
     </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
       <c r="E119" s="20"/>
     </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="20"/>
       <c r="D120" s="21"/>
       <c r="E120" s="20"/>
     </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="20"/>
       <c r="D121" s="21"/>
       <c r="E121" s="20"/>
     </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="20"/>
       <c r="D122" s="21"/>
       <c r="E122" s="20"/>
     </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="20"/>
       <c r="D123" s="21"/>
       <c r="E123" s="20"/>
     </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="20"/>
       <c r="D124" s="21"/>
       <c r="E124" s="20"/>
     </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="20"/>
       <c r="D125" s="21"/>
       <c r="E125" s="20"/>
     </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="20"/>
       <c r="D126" s="21"/>
       <c r="E126" s="20"/>
@@ -7588,38 +7584,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F664F3-BD10-4FC1-A06C-77AD301DBAC4}">
   <dimension ref="B1:I126"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:D16"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="3.625" style="41"/>
+    <col min="1" max="1" width="3.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
     </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
@@ -7628,12 +7624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="81" t="s">
         <v>12</v>
       </c>
@@ -7655,7 +7651,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -7671,7 +7667,7 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
         <f t="shared" ref="B7:B38" si="0">ROW()-6</f>
         <v>1</v>
@@ -7684,7 +7680,7 @@
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7701,7 +7697,7 @@
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7718,7 +7714,7 @@
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7735,7 +7731,7 @@
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7750,7 +7746,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7763,7 +7759,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7780,7 +7776,7 @@
       <c r="H13" s="59"/>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7795,7 +7791,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B15" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7810,7 +7806,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7823,7 +7819,7 @@
       <c r="H16" s="59"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7836,7 +7832,7 @@
       <c r="H17" s="59"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7849,7 +7845,7 @@
       <c r="H18" s="59"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7862,7 +7858,7 @@
       <c r="H19" s="59"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7875,7 +7871,7 @@
       <c r="H20" s="59"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7888,7 +7884,7 @@
       <c r="H21" s="59"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7901,7 +7897,7 @@
       <c r="H22" s="59"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -7914,7 +7910,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -7927,7 +7923,7 @@
       <c r="H24" s="59"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -7940,7 +7936,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -7953,7 +7949,7 @@
       <c r="H26" s="59"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -7966,7 +7962,7 @@
       <c r="H27" s="59"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -7979,7 +7975,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -7992,7 +7988,7 @@
       <c r="H29" s="59"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8005,7 +8001,7 @@
       <c r="H30" s="59"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -8018,7 +8014,7 @@
       <c r="H31" s="59"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -8031,7 +8027,7 @@
       <c r="H32" s="59"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -8044,7 +8040,7 @@
       <c r="H33" s="59"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -8057,7 +8053,7 @@
       <c r="H34" s="59"/>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -8070,7 +8066,7 @@
       <c r="H35" s="59"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -8083,7 +8079,7 @@
       <c r="H36" s="59"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -8096,7 +8092,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -8109,7 +8105,7 @@
       <c r="H38" s="59"/>
       <c r="I38" s="46"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
         <f t="shared" ref="B39:B71" si="1">ROW()-6</f>
         <v>33</v>
@@ -8122,7 +8118,7 @@
       <c r="H39" s="59"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -8135,7 +8131,7 @@
       <c r="H40" s="59"/>
       <c r="I40" s="46"/>
     </row>
-    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -8148,7 +8144,7 @@
       <c r="H41" s="59"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -8161,7 +8157,7 @@
       <c r="H42" s="59"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -8174,7 +8170,7 @@
       <c r="H43" s="59"/>
       <c r="I43" s="46"/>
     </row>
-    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -8187,7 +8183,7 @@
       <c r="H44" s="59"/>
       <c r="I44" s="46"/>
     </row>
-    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -8200,7 +8196,7 @@
       <c r="H45" s="59"/>
       <c r="I45" s="46"/>
     </row>
-    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -8213,7 +8209,7 @@
       <c r="H46" s="59"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -8226,7 +8222,7 @@
       <c r="H47" s="59"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B48" s="53">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -8239,7 +8235,7 @@
       <c r="H48" s="59"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B49" s="53">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -8252,7 +8248,7 @@
       <c r="H49" s="59"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B50" s="53">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -8265,7 +8261,7 @@
       <c r="H50" s="59"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B51" s="53">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -8278,7 +8274,7 @@
       <c r="H51" s="59"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B52" s="53">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -8291,7 +8287,7 @@
       <c r="H52" s="59"/>
       <c r="I52" s="46"/>
     </row>
-    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B53" s="53">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -8304,7 +8300,7 @@
       <c r="H53" s="59"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B54" s="53">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -8317,7 +8313,7 @@
       <c r="H54" s="59"/>
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B55" s="53">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -8330,7 +8326,7 @@
       <c r="H55" s="59"/>
       <c r="I55" s="46"/>
     </row>
-    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B56" s="53">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -8343,7 +8339,7 @@
       <c r="H56" s="59"/>
       <c r="I56" s="46"/>
     </row>
-    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B57" s="53">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -8356,7 +8352,7 @@
       <c r="H57" s="59"/>
       <c r="I57" s="46"/>
     </row>
-    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B58" s="53">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -8369,7 +8365,7 @@
       <c r="H58" s="59"/>
       <c r="I58" s="46"/>
     </row>
-    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B59" s="53">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -8382,7 +8378,7 @@
       <c r="H59" s="59"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B60" s="53">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -8395,7 +8391,7 @@
       <c r="H60" s="59"/>
       <c r="I60" s="46"/>
     </row>
-    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B61" s="53">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -8408,7 +8404,7 @@
       <c r="H61" s="59"/>
       <c r="I61" s="46"/>
     </row>
-    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B62" s="53">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -8421,7 +8417,7 @@
       <c r="H62" s="59"/>
       <c r="I62" s="46"/>
     </row>
-    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B63" s="53">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -8434,7 +8430,7 @@
       <c r="H63" s="59"/>
       <c r="I63" s="46"/>
     </row>
-    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B64" s="53">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -8447,7 +8443,7 @@
       <c r="H64" s="59"/>
       <c r="I64" s="46"/>
     </row>
-    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B65" s="53">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -8460,7 +8456,7 @@
       <c r="H65" s="59"/>
       <c r="I65" s="46"/>
     </row>
-    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B66" s="53">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -8473,7 +8469,7 @@
       <c r="H66" s="59"/>
       <c r="I66" s="46"/>
     </row>
-    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B67" s="53">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -8486,7 +8482,7 @@
       <c r="H67" s="59"/>
       <c r="I67" s="46"/>
     </row>
-    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B68" s="53">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -8499,7 +8495,7 @@
       <c r="H68" s="59"/>
       <c r="I68" s="46"/>
     </row>
-    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B69" s="53">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -8512,7 +8508,7 @@
       <c r="H69" s="59"/>
       <c r="I69" s="46"/>
     </row>
-    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B70" s="53">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -8525,7 +8521,7 @@
       <c r="H70" s="59"/>
       <c r="I70" s="46"/>
     </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="43">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -8538,277 +8534,277 @@
       <c r="H71" s="58"/>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="20"/>
       <c r="D81" s="21"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="20"/>
       <c r="D82" s="21"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
       <c r="D84" s="21"/>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="20"/>
     </row>
-    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="20"/>
     </row>
-    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="20"/>
       <c r="D88" s="21"/>
       <c r="E88" s="20"/>
     </row>
-    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="20"/>
       <c r="D90" s="21"/>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="20"/>
       <c r="D92" s="21"/>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
       <c r="E94" s="20"/>
     </row>
-    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="20"/>
     </row>
-    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="20"/>
     </row>
-    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
       <c r="E107" s="20"/>
     </row>
-    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
       <c r="E110" s="20"/>
     </row>
-    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
       <c r="E113" s="20"/>
     </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
       <c r="E115" s="20"/>
     </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
       <c r="E119" s="20"/>
     </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="20"/>
       <c r="D120" s="21"/>
       <c r="E120" s="20"/>
     </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="20"/>
       <c r="D121" s="21"/>
       <c r="E121" s="20"/>
     </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="20"/>
       <c r="D122" s="21"/>
       <c r="E122" s="20"/>
     </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="20"/>
       <c r="D123" s="21"/>
       <c r="E123" s="20"/>
     </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="20"/>
       <c r="D124" s="21"/>
       <c r="E124" s="20"/>
     </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="20"/>
       <c r="D125" s="21"/>
       <c r="E125" s="20"/>
     </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="20"/>
       <c r="D126" s="21"/>
       <c r="E126" s="20"/>
@@ -8833,41 +8829,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B365B251-E72A-4707-802F-CC39ED12D917}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21739B-468A-46E1-ADF0-398241288E15}">
   <dimension ref="B1:I126"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="3.625" style="41"/>
+    <col min="1" max="1" width="3.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="79" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="79"/>
       <c r="D1" s="79"/>
     </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="60"/>
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
@@ -8876,12 +8872,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="81" t="s">
         <v>12</v>
       </c>
@@ -8903,7 +8899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="82"/>
       <c r="C6" s="84"/>
       <c r="D6" s="84"/>
@@ -8919,20 +8915,24 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
-        <f t="shared" ref="B7:B38" si="0">ROW()-6</f>
+        <f t="shared" ref="B7:B70" si="0">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
+      <c r="C7" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>91</v>
+      </c>
       <c r="E7" s="55"/>
       <c r="F7" s="49"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8945,46 +8945,56 @@
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>95</v>
+      </c>
       <c r="F9" s="49"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="D10" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>96</v>
+      </c>
       <c r="F10" s="49"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="D11" s="55" t="s">
+        <v>93</v>
+      </c>
       <c r="E11" s="55"/>
       <c r="F11" s="49"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
       <c r="I11" s="46"/>
     </row>
-    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B12" s="53">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8997,7 +9007,7 @@
       <c r="H12" s="59"/>
       <c r="I12" s="46"/>
     </row>
-    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B13" s="53">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -9010,7 +9020,7 @@
       <c r="H13" s="59"/>
       <c r="I13" s="46"/>
     </row>
-    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B14" s="53">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9023,7 +9033,7 @@
       <c r="H14" s="59"/>
       <c r="I14" s="46"/>
     </row>
-    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B15" s="53">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -9036,7 +9046,7 @@
       <c r="H15" s="59"/>
       <c r="I15" s="46"/>
     </row>
-    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -9049,7 +9059,7 @@
       <c r="H16" s="59"/>
       <c r="I16" s="46"/>
     </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -9062,7 +9072,7 @@
       <c r="H17" s="59"/>
       <c r="I17" s="46"/>
     </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -9075,7 +9085,7 @@
       <c r="H18" s="59"/>
       <c r="I18" s="46"/>
     </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B19" s="53">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -9088,7 +9098,7 @@
       <c r="H19" s="59"/>
       <c r="I19" s="46"/>
     </row>
-    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B20" s="53">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -9101,7 +9111,7 @@
       <c r="H20" s="59"/>
       <c r="I20" s="46"/>
     </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B21" s="53">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -9114,7 +9124,7 @@
       <c r="H21" s="59"/>
       <c r="I21" s="46"/>
     </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -9127,7 +9137,7 @@
       <c r="H22" s="59"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -9140,7 +9150,7 @@
       <c r="H23" s="59"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -9153,7 +9163,7 @@
       <c r="H24" s="59"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -9166,7 +9176,7 @@
       <c r="H25" s="59"/>
       <c r="I25" s="46"/>
     </row>
-    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B26" s="53">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -9179,7 +9189,7 @@
       <c r="H26" s="59"/>
       <c r="I26" s="46"/>
     </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B27" s="53">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -9192,7 +9202,7 @@
       <c r="H27" s="59"/>
       <c r="I27" s="46"/>
     </row>
-    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B28" s="53">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9205,7 +9215,7 @@
       <c r="H28" s="59"/>
       <c r="I28" s="46"/>
     </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B29" s="53">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -9218,7 +9228,7 @@
       <c r="H29" s="59"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -9231,7 +9241,7 @@
       <c r="H30" s="59"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9244,7 +9254,7 @@
       <c r="H31" s="59"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B32" s="53">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9257,7 +9267,7 @@
       <c r="H32" s="59"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B33" s="53">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -9270,7 +9280,7 @@
       <c r="H33" s="59"/>
       <c r="I33" s="46"/>
     </row>
-    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B34" s="53">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -9283,7 +9293,7 @@
       <c r="H34" s="59"/>
       <c r="I34" s="46"/>
     </row>
-    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B35" s="53">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9296,7 +9306,7 @@
       <c r="H35" s="59"/>
       <c r="I35" s="46"/>
     </row>
-    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B36" s="53">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -9309,7 +9319,7 @@
       <c r="H36" s="59"/>
       <c r="I36" s="46"/>
     </row>
-    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B37" s="53">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -9322,7 +9332,7 @@
       <c r="H37" s="59"/>
       <c r="I37" s="46"/>
     </row>
-    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B38" s="53">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -9335,9 +9345,9 @@
       <c r="H38" s="59"/>
       <c r="I38" s="46"/>
     </row>
-    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B39" s="53">
-        <f t="shared" ref="B39:B71" si="1">ROW()-6</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C39" s="54"/>
@@ -9348,9 +9358,9 @@
       <c r="H39" s="59"/>
       <c r="I39" s="46"/>
     </row>
-    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B40" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C40" s="54"/>
@@ -9361,9 +9371,9 @@
       <c r="H40" s="59"/>
       <c r="I40" s="46"/>
     </row>
-    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B41" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C41" s="54"/>
@@ -9374,9 +9384,9 @@
       <c r="H41" s="59"/>
       <c r="I41" s="46"/>
     </row>
-    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B42" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C42" s="54"/>
@@ -9387,9 +9397,9 @@
       <c r="H42" s="59"/>
       <c r="I42" s="46"/>
     </row>
-    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B43" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C43" s="54"/>
@@ -9400,9 +9410,9 @@
       <c r="H43" s="59"/>
       <c r="I43" s="46"/>
     </row>
-    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B44" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C44" s="54"/>
@@ -9413,9 +9423,9 @@
       <c r="H44" s="59"/>
       <c r="I44" s="46"/>
     </row>
-    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B45" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C45" s="54"/>
@@ -9426,9 +9436,9 @@
       <c r="H45" s="59"/>
       <c r="I45" s="46"/>
     </row>
-    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B46" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C46" s="54"/>
@@ -9439,9 +9449,9 @@
       <c r="H46" s="59"/>
       <c r="I46" s="46"/>
     </row>
-    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B47" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C47" s="54"/>
@@ -9452,9 +9462,9 @@
       <c r="H47" s="59"/>
       <c r="I47" s="46"/>
     </row>
-    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B48" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C48" s="54"/>
@@ -9465,9 +9475,9 @@
       <c r="H48" s="59"/>
       <c r="I48" s="46"/>
     </row>
-    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B49" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C49" s="54"/>
@@ -9478,9 +9488,9 @@
       <c r="H49" s="59"/>
       <c r="I49" s="46"/>
     </row>
-    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B50" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C50" s="54"/>
@@ -9491,9 +9501,9 @@
       <c r="H50" s="59"/>
       <c r="I50" s="46"/>
     </row>
-    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B51" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C51" s="54"/>
@@ -9504,9 +9514,9 @@
       <c r="H51" s="59"/>
       <c r="I51" s="46"/>
     </row>
-    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B52" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="C52" s="54"/>
@@ -9517,9 +9527,9 @@
       <c r="H52" s="59"/>
       <c r="I52" s="46"/>
     </row>
-    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B53" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="C53" s="54"/>
@@ -9530,9 +9540,9 @@
       <c r="H53" s="59"/>
       <c r="I53" s="46"/>
     </row>
-    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B54" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C54" s="54"/>
@@ -9543,9 +9553,9 @@
       <c r="H54" s="59"/>
       <c r="I54" s="46"/>
     </row>
-    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B55" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C55" s="54"/>
@@ -9556,9 +9566,9 @@
       <c r="H55" s="59"/>
       <c r="I55" s="46"/>
     </row>
-    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B56" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C56" s="54"/>
@@ -9569,9 +9579,9 @@
       <c r="H56" s="59"/>
       <c r="I56" s="46"/>
     </row>
-    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B57" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C57" s="54"/>
@@ -9582,9 +9592,9 @@
       <c r="H57" s="59"/>
       <c r="I57" s="46"/>
     </row>
-    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B58" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C58" s="54"/>
@@ -9595,9 +9605,9 @@
       <c r="H58" s="59"/>
       <c r="I58" s="46"/>
     </row>
-    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B59" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="C59" s="54"/>
@@ -9608,9 +9618,9 @@
       <c r="H59" s="59"/>
       <c r="I59" s="46"/>
     </row>
-    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B60" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="C60" s="54"/>
@@ -9621,9 +9631,9 @@
       <c r="H60" s="59"/>
       <c r="I60" s="46"/>
     </row>
-    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B61" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C61" s="54"/>
@@ -9634,9 +9644,9 @@
       <c r="H61" s="59"/>
       <c r="I61" s="46"/>
     </row>
-    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B62" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="C62" s="54"/>
@@ -9647,9 +9657,9 @@
       <c r="H62" s="59"/>
       <c r="I62" s="46"/>
     </row>
-    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B63" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C63" s="54"/>
@@ -9660,9 +9670,9 @@
       <c r="H63" s="59"/>
       <c r="I63" s="46"/>
     </row>
-    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B64" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C64" s="54"/>
@@ -9673,9 +9683,9 @@
       <c r="H64" s="59"/>
       <c r="I64" s="46"/>
     </row>
-    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B65" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>59</v>
       </c>
       <c r="C65" s="54"/>
@@ -9686,9 +9696,9 @@
       <c r="H65" s="59"/>
       <c r="I65" s="46"/>
     </row>
-    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B66" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C66" s="54"/>
@@ -9699,9 +9709,9 @@
       <c r="H66" s="59"/>
       <c r="I66" s="46"/>
     </row>
-    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B67" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="C67" s="54"/>
@@ -9712,9 +9722,9 @@
       <c r="H67" s="59"/>
       <c r="I67" s="46"/>
     </row>
-    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B68" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C68" s="54"/>
@@ -9725,9 +9735,9 @@
       <c r="H68" s="59"/>
       <c r="I68" s="46"/>
     </row>
-    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B69" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C69" s="54"/>
@@ -9738,9 +9748,9 @@
       <c r="H69" s="59"/>
       <c r="I69" s="46"/>
     </row>
-    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="B70" s="53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C70" s="54"/>
@@ -9751,9 +9761,9 @@
       <c r="H70" s="59"/>
       <c r="I70" s="46"/>
     </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="43">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B71" si="1">ROW()-6</f>
         <v>65</v>
       </c>
       <c r="C71" s="45"/>
@@ -9764,1517 +9774,277 @@
       <c r="H71" s="58"/>
       <c r="I71" s="47"/>
     </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
     </row>
-    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="20"/>
       <c r="D81" s="21"/>
       <c r="E81" s="20"/>
     </row>
-    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="20"/>
       <c r="D82" s="21"/>
       <c r="E82" s="20"/>
     </row>
-    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="20"/>
       <c r="D83" s="21"/>
       <c r="E83" s="20"/>
     </row>
-    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="20"/>
       <c r="D84" s="21"/>
       <c r="E84" s="20"/>
     </row>
-    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="20"/>
     </row>
-    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="20"/>
       <c r="D86" s="21"/>
       <c r="E86" s="20"/>
     </row>
-    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="20"/>
     </row>
-    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="20"/>
       <c r="D88" s="21"/>
       <c r="E88" s="20"/>
     </row>
-    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="20"/>
       <c r="D89" s="21"/>
       <c r="E89" s="20"/>
     </row>
-    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="20"/>
       <c r="D90" s="21"/>
       <c r="E90" s="20"/>
     </row>
-    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="20"/>
       <c r="D91" s="21"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="20"/>
       <c r="D92" s="21"/>
       <c r="E92" s="20"/>
     </row>
-    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="20"/>
       <c r="D93" s="21"/>
       <c r="E93" s="20"/>
     </row>
-    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="20"/>
       <c r="D94" s="21"/>
       <c r="E94" s="20"/>
     </row>
-    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="20"/>
       <c r="D95" s="21"/>
       <c r="E95" s="20"/>
     </row>
-    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="20"/>
       <c r="D96" s="21"/>
       <c r="E96" s="20"/>
     </row>
-    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="20"/>
       <c r="D97" s="21"/>
       <c r="E97" s="20"/>
     </row>
-    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="20"/>
       <c r="D98" s="21"/>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="20"/>
       <c r="D99" s="21"/>
       <c r="E99" s="20"/>
     </row>
-    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="20"/>
       <c r="D100" s="21"/>
       <c r="E100" s="20"/>
     </row>
-    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="20"/>
       <c r="D101" s="21"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C102" s="20"/>
       <c r="D102" s="21"/>
       <c r="E102" s="20"/>
     </row>
-    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C103" s="20"/>
       <c r="D103" s="21"/>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="20"/>
       <c r="D104" s="21"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C105" s="20"/>
       <c r="D105" s="21"/>
       <c r="E105" s="20"/>
     </row>
-    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C106" s="20"/>
       <c r="D106" s="21"/>
       <c r="E106" s="20"/>
     </row>
-    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C107" s="20"/>
       <c r="D107" s="21"/>
       <c r="E107" s="20"/>
     </row>
-    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C108" s="20"/>
       <c r="D108" s="21"/>
       <c r="E108" s="20"/>
     </row>
-    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C109" s="20"/>
       <c r="D109" s="21"/>
       <c r="E109" s="20"/>
     </row>
-    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C110" s="20"/>
       <c r="D110" s="21"/>
       <c r="E110" s="20"/>
     </row>
-    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C111" s="20"/>
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C112" s="20"/>
       <c r="D112" s="21"/>
       <c r="E112" s="20"/>
     </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C113" s="20"/>
       <c r="D113" s="21"/>
       <c r="E113" s="20"/>
     </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C114" s="20"/>
       <c r="D114" s="21"/>
       <c r="E114" s="20"/>
     </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C115" s="20"/>
       <c r="D115" s="21"/>
       <c r="E115" s="20"/>
     </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C116" s="20"/>
       <c r="D116" s="21"/>
       <c r="E116" s="20"/>
     </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C117" s="20"/>
       <c r="D117" s="21"/>
       <c r="E117" s="20"/>
     </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C118" s="20"/>
       <c r="D118" s="21"/>
       <c r="E118" s="20"/>
     </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C119" s="20"/>
       <c r="D119" s="21"/>
       <c r="E119" s="20"/>
     </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C120" s="20"/>
       <c r="D120" s="21"/>
       <c r="E120" s="20"/>
     </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C121" s="20"/>
       <c r="D121" s="21"/>
       <c r="E121" s="20"/>
     </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C122" s="20"/>
       <c r="D122" s="21"/>
       <c r="E122" s="20"/>
     </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C123" s="20"/>
       <c r="D123" s="21"/>
       <c r="E123" s="20"/>
     </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C124" s="20"/>
       <c r="D124" s="21"/>
       <c r="E124" s="20"/>
     </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C125" s="20"/>
       <c r="D125" s="21"/>
       <c r="E125" s="20"/>
     </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="20"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="20"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:H5"/>
-  </mergeCells>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21739B-468A-46E1-ADF0-398241288E15}">
-  <dimension ref="B1:I126"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="3.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="5.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="41" customWidth="1"/>
-    <col min="4" max="4" width="72.5" style="9" customWidth="1"/>
-    <col min="5" max="5" width="70.375" style="41" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.25" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.375" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="3.625" style="41"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-    </row>
-    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-    </row>
-    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="18"/>
-      <c r="F3" s="41">
-        <f>COUNTIF(F7:F71, "-")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="82"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="42">
-        <v>1</v>
-      </c>
-      <c r="G6" s="42">
-        <v>2</v>
-      </c>
-      <c r="H6" s="42">
-        <v>3</v>
-      </c>
-      <c r="I6" s="78"/>
-    </row>
-    <row r="7" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="53">
-        <f t="shared" ref="B7:B70" si="0">ROW()-6</f>
-        <v>1</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="53">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="2:9" ht="57" x14ac:dyDescent="0.15">
-      <c r="B9" s="53">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="2:9" ht="57" x14ac:dyDescent="0.15">
-      <c r="B10" s="53">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="2:9" ht="57" x14ac:dyDescent="0.15">
-      <c r="B11" s="53">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="55"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B12" s="53">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B13" s="53">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="46"/>
-    </row>
-    <row r="14" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B14" s="53">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="46"/>
-    </row>
-    <row r="15" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="53">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="53">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B17" s="53">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B18" s="53">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B19" s="53">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B20" s="53">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B21" s="53">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B22" s="53">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B23" s="53">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B24" s="53">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B25" s="53">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="46"/>
-    </row>
-    <row r="26" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B26" s="53">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="46"/>
-    </row>
-    <row r="27" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B27" s="53">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="46"/>
-    </row>
-    <row r="28" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B28" s="53">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="46"/>
-    </row>
-    <row r="29" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B29" s="53">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="46"/>
-    </row>
-    <row r="30" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B30" s="53">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="46"/>
-    </row>
-    <row r="31" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B31" s="53">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="46"/>
-    </row>
-    <row r="32" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B32" s="53">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="46"/>
-    </row>
-    <row r="33" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B33" s="53">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="46"/>
-    </row>
-    <row r="34" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B34" s="53">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="46"/>
-    </row>
-    <row r="35" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B35" s="53">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="46"/>
-    </row>
-    <row r="36" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B36" s="53">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="46"/>
-    </row>
-    <row r="37" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B37" s="53">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C37" s="54"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="46"/>
-    </row>
-    <row r="38" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="53">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B39" s="53">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C39" s="54"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="46"/>
-    </row>
-    <row r="40" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="53">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="46"/>
-    </row>
-    <row r="41" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="53">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="46"/>
-    </row>
-    <row r="42" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="53">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="46"/>
-    </row>
-    <row r="43" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="53">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="46"/>
-    </row>
-    <row r="44" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B44" s="53">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="59"/>
-      <c r="I44" s="46"/>
-    </row>
-    <row r="45" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B45" s="53">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="59"/>
-      <c r="I45" s="46"/>
-    </row>
-    <row r="46" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="53">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="59"/>
-      <c r="I46" s="46"/>
-    </row>
-    <row r="47" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B47" s="53">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="46"/>
-    </row>
-    <row r="48" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B48" s="53">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="46"/>
-    </row>
-    <row r="49" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B49" s="53">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="46"/>
-    </row>
-    <row r="50" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B50" s="53">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="46"/>
-    </row>
-    <row r="51" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B51" s="53">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="46"/>
-    </row>
-    <row r="52" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="53">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="59"/>
-      <c r="I52" s="46"/>
-    </row>
-    <row r="53" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B53" s="53">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="59"/>
-      <c r="I53" s="46"/>
-    </row>
-    <row r="54" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B54" s="53">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="59"/>
-      <c r="I54" s="46"/>
-    </row>
-    <row r="55" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B55" s="53">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="59"/>
-      <c r="I55" s="46"/>
-    </row>
-    <row r="56" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B56" s="53">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="46"/>
-    </row>
-    <row r="57" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B57" s="53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="46"/>
-    </row>
-    <row r="58" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B58" s="53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="46"/>
-    </row>
-    <row r="59" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B59" s="53">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="46"/>
-    </row>
-    <row r="60" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="53">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="46"/>
-    </row>
-    <row r="61" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B61" s="53">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="46"/>
-    </row>
-    <row r="62" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B62" s="53">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="46"/>
-    </row>
-    <row r="63" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B63" s="53">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="46"/>
-    </row>
-    <row r="64" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B64" s="53">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B65" s="53">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="46"/>
-    </row>
-    <row r="66" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B66" s="53">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="46"/>
-    </row>
-    <row r="67" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B67" s="53">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="46"/>
-    </row>
-    <row r="68" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B68" s="53">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="46"/>
-    </row>
-    <row r="69" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B69" s="53">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="2:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B70" s="53">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="46"/>
-    </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="43">
-        <f t="shared" ref="B71" si="1">ROW()-6</f>
-        <v>65</v>
-      </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="47"/>
-    </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C72" s="20"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="20"/>
-    </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C73" s="20"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="20"/>
-    </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C74" s="20"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C75" s="20"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="20"/>
-    </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="20"/>
-    </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C77" s="20"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="20"/>
-    </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C78" s="20"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="20"/>
-    </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C79" s="20"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="20"/>
-    </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C80" s="20"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="20"/>
-    </row>
-    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C81" s="20"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="20"/>
-    </row>
-    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C82" s="20"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="20"/>
-    </row>
-    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C83" s="20"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="20"/>
-    </row>
-    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="20"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="20"/>
-    </row>
-    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C85" s="20"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="20"/>
-    </row>
-    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="20"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="20"/>
-    </row>
-    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="20"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="20"/>
-    </row>
-    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="20"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="20"/>
-    </row>
-    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C89" s="20"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="20"/>
-    </row>
-    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="20"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="20"/>
-    </row>
-    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="20"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="20"/>
-    </row>
-    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="20"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="20"/>
-    </row>
-    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="20"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="20"/>
-    </row>
-    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="20"/>
-      <c r="D94" s="21"/>
-      <c r="E94" s="20"/>
-    </row>
-    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C95" s="20"/>
-      <c r="D95" s="21"/>
-      <c r="E95" s="20"/>
-    </row>
-    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="20"/>
-      <c r="D96" s="21"/>
-      <c r="E96" s="20"/>
-    </row>
-    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C97" s="20"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="20"/>
-    </row>
-    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="20"/>
-      <c r="D98" s="21"/>
-      <c r="E98" s="20"/>
-    </row>
-    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="20"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="20"/>
-    </row>
-    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="20"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="20"/>
-    </row>
-    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C101" s="20"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="20"/>
-    </row>
-    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="20"/>
-      <c r="D102" s="21"/>
-      <c r="E102" s="20"/>
-    </row>
-    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C103" s="20"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="20"/>
-    </row>
-    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="20"/>
-      <c r="D104" s="21"/>
-      <c r="E104" s="20"/>
-    </row>
-    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="20"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="20"/>
-    </row>
-    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="20"/>
-      <c r="D106" s="21"/>
-      <c r="E106" s="20"/>
-    </row>
-    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C107" s="20"/>
-      <c r="D107" s="21"/>
-      <c r="E107" s="20"/>
-    </row>
-    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="20"/>
-      <c r="D108" s="21"/>
-      <c r="E108" s="20"/>
-    </row>
-    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="20"/>
-      <c r="D109" s="21"/>
-      <c r="E109" s="20"/>
-    </row>
-    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="20"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="20"/>
-    </row>
-    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="20"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="20"/>
-    </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="20"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="20"/>
-    </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C113" s="20"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="20"/>
-    </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="20"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="20"/>
-    </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="20"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="20"/>
-    </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="20"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="20"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="20"/>
-    </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="20"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C119" s="20"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="20"/>
-    </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C120" s="20"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C121" s="20"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="20"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C123" s="20"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="20"/>
-    </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="20"/>
-    </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="20"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="20"/>
-    </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C126" s="20"/>
       <c r="D126" s="21"/>
       <c r="E126" s="20"/>
@@ -11299,6 +10069,77 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">Y3XF74WFDZR6-1516604052-817</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">
+      <Url>http://dws-doc/dev/_layouts/15/DocIdRedir.aspx?ID=Y3XF74WFDZR6-1516604052-817</Url>
+      <Description>Y3XF74WFDZR6-1516604052-817</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100974FC469A97C7F438627629EF72E81C3" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="51e6cd2ede054470d9d69ae26f2d4930">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d6efe66-988e-483a-b438-1c50e9cc962c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="66e4f992c7d9b859806deac03ddde67a" ns2:_="">
     <xsd:import namespace="1d6efe66-988e-483a-b438-1c50e9cc962c"/>
@@ -11443,78 +10284,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">Y3XF74WFDZR6-1516604052-817</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="1d6efe66-988e-483a-b438-1c50e9cc962c">
-      <Url>http://dws-doc/dev/_layouts/15/DocIdRedir.aspx?ID=Y3XF74WFDZR6-1516604052-817</Url>
-      <Description>Y3XF74WFDZR6-1516604052-817</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A2F329-6D91-4BCC-BC92-119BAC84417D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C06992F3-F7B0-4F7D-A100-250899AA6C0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2461529D-F5B9-4CBF-A9BB-15425F80202A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d6efe66-988e-483a-b438-1c50e9cc962c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E69E5F02-1CF8-4EDA-9224-974D0C3A0AA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11530,36 +10332,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2461529D-F5B9-4CBF-A9BB-15425F80202A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1d6efe66-988e-483a-b438-1c50e9cc962c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C06992F3-F7B0-4F7D-A100-250899AA6C0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A2A2F329-6D91-4BCC-BC92-119BAC84417D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/BeaconDetector/examination.xlsx
+++ b/BeaconDetector/examination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\BeaconDetector\BeaconDetector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34207C1-1D1E-4A3A-B58C-E8930B4A5F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D353AB95-9ECA-40AC-BB1D-BE7BC10BF3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="検査環境" sheetId="6" r:id="rId1"/>
@@ -20,22 +20,26 @@
     <sheet name="映像" sheetId="82" r:id="rId5"/>
     <sheet name="bi画面、確認" sheetId="83" r:id="rId6"/>
     <sheet name="導線の確認システムテスト" sheetId="85" r:id="rId7"/>
+    <sheet name="Webカメラ映像の確認システムテスト" sheetId="86" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'bi画面、確認'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'smart phone &amp; beacon'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Webカメラ映像の確認システムテスト!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">映像!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">通知データ収集!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">導線の確認システムテスト!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">導線履歴登録!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'bi画面、確認'!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'smart phone &amp; beacon'!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Webカメラ映像の確認システムテスト!$A$1:$I$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">映像!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">通知データ収集!$A$1:$I$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">導線の確認システムテスト!$A$1:$I$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">導線の確認システムテスト!$A$1:$I$6</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">導線履歴登録!$A$1:$I$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'bi画面、確認'!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'smart phone &amp; beacon'!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">Webカメラ映像の確認システムテスト!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">映像!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">通知データ収集!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">導線の確認システムテスト!$1:$6</definedName>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="106">
   <si>
     <t>―</t>
   </si>
@@ -879,16 +883,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>現地環境を再現</t>
-    <rPh sb="0" eb="3">
-      <t>ゲンチカンキョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サイゲン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>現地に近い形で、ビーコンを配置、カメラ、Wifi、検証PCを設置</t>
     <rPh sb="0" eb="1">
       <t>ゲンチ</t>
@@ -1053,6 +1047,140 @@
       <t>ヒロ</t>
     </rPh>
     <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Web'カメラ確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Webカメラ③の動画確認
+Webカメラ対象のビーコン
+⑩⑪⑫⑬⑭
+下記のルートを移動し、導線を作成
+⑩ー⑪、⑩ー⑫、⑩ー⑬、⑩ー⑭
+⑪ー⑫、⑪ー⑬、⑪ー⑭
+⑫ー⑬、⑫ー⑭
+⑬ー⑭
+</t>
+    <rPh sb="8" eb="12">
+      <t>ドウガカクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Webカメラ③の動画確認
+Webカメラ対象のビーコン
+⑥⑦⑧⑨
+下記のルートを移動し、導線を作成
+⑥ー⑦、⑥ー⑧、⑥ー⑨
+⑦ー⑧、⑧ー⑨
+⑧ー⑨
+</t>
+    <rPh sb="8" eb="12">
+      <t>ドウガカクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Webカメラ③の動画確認
+Webカメラ対象のビーコン
+⑤⑥⑦⑧
+下記のルートを移動し、導線を作成
+⑥ー⑦、⑥ー⑧、⑥ー⑨
+⑦ー⑧、⑧ー⑨
+⑧ー⑨
+</t>
+    <rPh sb="8" eb="12">
+      <t>ドウガカクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Webカメラ①の動画確認
+Webカメラ対象のビーコン
+'①②⑮⑯
+下記のルートを移動し、導線を作成
+①ー②、①ー⑮、①ー⑯
+②ー⑮、②ー⑯
+⑮ー⑯
+</t>
+    <rPh sb="8" eb="12">
+      <t>ドウガカクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Webカメラ②の動画確認
+Webカメラ対象のビーコン
+'③④⑤
+下記のルートを移動し、導線を作成
+③ー④、③ー⑤
+④ー⑤
+</t>
+    <rPh sb="8" eb="12">
+      <t>ドウガカクニン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・導線のWebカメラの映像が表示されること
+Web上で導線をクリックすることで映像が表示されることを確認
+</t>
+    <rPh sb="0" eb="2">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ドウセン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>エイゾウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="5"/>
@@ -2816,7 +2944,7 @@
         <v>61</v>
       </c>
       <c r="D10" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="55"/>
       <c r="F10" s="49"/>
@@ -2957,10 +3085,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="55" t="s">
         <v>98</v>
-      </c>
-      <c r="D18" s="55" t="s">
-        <v>99</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="49"/>
@@ -7584,7 +7712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F664F3-BD10-4FC1-A06C-77AD301DBAC4}">
   <dimension ref="B1:I126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
       <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
@@ -8830,12 +8958,12 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF21739B-468A-46E1-ADF0-398241288E15}">
-  <dimension ref="B1:I126"/>
+  <dimension ref="B1:I111"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B5" sqref="B5:B6"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8868,7 +8996,7 @@
       <c r="C3" s="61"/>
       <c r="D3" s="18"/>
       <c r="F3" s="41">
-        <f>COUNTIF(F7:F71, "-")</f>
+        <f>COUNTIF(F7:F56, "-")</f>
         <v>0</v>
       </c>
     </row>
@@ -8915,80 +9043,88 @@
       </c>
       <c r="I6" s="78"/>
     </row>
-    <row r="7" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="129.6" x14ac:dyDescent="0.2">
       <c r="B7" s="53">
-        <f t="shared" ref="B7:B70" si="0">ROW()-6</f>
+        <f t="shared" ref="B7:B55" si="0">ROW()-6</f>
         <v>1</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="55"/>
+        <v>103</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>105</v>
+      </c>
       <c r="F7" s="49"/>
       <c r="G7" s="59"/>
       <c r="H7" s="59"/>
       <c r="I7" s="46"/>
     </row>
-    <row r="8" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" ht="115.2" x14ac:dyDescent="0.2">
       <c r="B8" s="53">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="D8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>105</v>
+      </c>
       <c r="F8" s="49"/>
       <c r="G8" s="59"/>
       <c r="H8" s="59"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" ht="129.6" x14ac:dyDescent="0.2">
       <c r="B9" s="53">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="55" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="E9" s="55" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F9" s="49"/>
       <c r="G9" s="59"/>
       <c r="H9" s="59"/>
       <c r="I9" s="46"/>
     </row>
-    <row r="10" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9" ht="129.6" x14ac:dyDescent="0.2">
       <c r="B10" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F10" s="49"/>
       <c r="G10" s="59"/>
       <c r="H10" s="59"/>
       <c r="I10" s="46"/>
     </row>
-    <row r="11" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="144" x14ac:dyDescent="0.2">
       <c r="B11" s="53">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="55"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>105</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="G11" s="59"/>
       <c r="H11" s="59"/>
@@ -9566,255 +9702,135 @@
       <c r="H55" s="59"/>
       <c r="I55" s="46"/>
     </row>
-    <row r="56" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B56" s="53">
-        <f t="shared" si="0"/>
+    <row r="56" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="43">
+        <f t="shared" ref="B56" si="1">ROW()-6</f>
         <v>50</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
-      <c r="I56" s="46"/>
-    </row>
-    <row r="57" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B57" s="53">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="46"/>
-    </row>
-    <row r="58" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B58" s="53">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="59"/>
-      <c r="I58" s="46"/>
-    </row>
-    <row r="59" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B59" s="53">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="46"/>
-    </row>
-    <row r="60" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B60" s="53">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="46"/>
-    </row>
-    <row r="61" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B61" s="53">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C61" s="54"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="46"/>
-    </row>
-    <row r="62" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B62" s="53">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C62" s="54"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="46"/>
-    </row>
-    <row r="63" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B63" s="53">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="C63" s="54"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="46"/>
-    </row>
-    <row r="64" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B64" s="53">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="46"/>
-    </row>
-    <row r="65" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B65" s="53">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="46"/>
-    </row>
-    <row r="66" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B66" s="53">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="46"/>
-    </row>
-    <row r="67" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B67" s="53">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="46"/>
-    </row>
-    <row r="68" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B68" s="53">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="C68" s="54"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="46"/>
-    </row>
-    <row r="69" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B69" s="53">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="B70" s="53">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C70" s="54"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="46"/>
-    </row>
-    <row r="71" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="43">
-        <f t="shared" ref="B71" si="1">ROW()-6</f>
-        <v>65</v>
-      </c>
-      <c r="C71" s="45"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="58"/>
-      <c r="I71" s="47"/>
-    </row>
-    <row r="72" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="45"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="47"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="20"/>
+    </row>
+    <row r="62" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="20"/>
+    </row>
+    <row r="64" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="20"/>
+    </row>
+    <row r="66" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="20"/>
+    </row>
+    <row r="69" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="20"/>
+    </row>
+    <row r="70" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="20"/>
+    </row>
+    <row r="71" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="20"/>
+    </row>
+    <row r="72" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="20"/>
       <c r="D72" s="21"/>
       <c r="E72" s="20"/>
     </row>
-    <row r="73" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="20"/>
       <c r="D73" s="21"/>
       <c r="E73" s="20"/>
     </row>
-    <row r="74" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="20"/>
       <c r="D74" s="21"/>
       <c r="E74" s="20"/>
     </row>
-    <row r="75" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="20"/>
       <c r="D75" s="21"/>
       <c r="E75" s="20"/>
     </row>
-    <row r="76" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="20"/>
       <c r="D76" s="21"/>
       <c r="E76" s="20"/>
     </row>
-    <row r="77" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="20"/>
       <c r="D77" s="21"/>
       <c r="E77" s="20"/>
     </row>
-    <row r="78" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="20"/>
       <c r="D78" s="21"/>
       <c r="E78" s="20"/>
     </row>
-    <row r="79" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="20"/>
       <c r="D79" s="21"/>
       <c r="E79" s="20"/>
     </row>
-    <row r="80" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="20"/>
       <c r="D80" s="21"/>
       <c r="E80" s="20"/>
@@ -9974,80 +9990,1070 @@
       <c r="D111" s="21"/>
       <c r="E111" s="20"/>
     </row>
-    <row r="112" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="20"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="20"/>
-    </row>
-    <row r="113" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="20"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="20"/>
-    </row>
-    <row r="114" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="20"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="20"/>
-    </row>
-    <row r="115" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="20"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="20"/>
-    </row>
-    <row r="116" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="20"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="20"/>
-    </row>
-    <row r="117" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="20"/>
-      <c r="D117" s="21"/>
-      <c r="E117" s="20"/>
-    </row>
-    <row r="118" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="20"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="20"/>
-    </row>
-    <row r="119" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="20"/>
-      <c r="D119" s="21"/>
-      <c r="E119" s="20"/>
-    </row>
-    <row r="120" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="20"/>
-      <c r="D120" s="21"/>
-      <c r="E120" s="20"/>
-    </row>
-    <row r="121" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="20"/>
-      <c r="D121" s="21"/>
-      <c r="E121" s="20"/>
-    </row>
-    <row r="122" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="20"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="20"/>
-    </row>
-    <row r="123" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="20"/>
-      <c r="D123" s="21"/>
-      <c r="E123" s="20"/>
-    </row>
-    <row r="124" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="20"/>
-      <c r="D124" s="21"/>
-      <c r="E124" s="20"/>
-    </row>
-    <row r="125" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="20"/>
-      <c r="D125" s="21"/>
-      <c r="E125" s="20"/>
-    </row>
-    <row r="126" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="20"/>
-      <c r="D126" s="21"/>
-      <c r="E126" s="20"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:H5"/>
+  </mergeCells>
+  <phoneticPr fontId="5"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="53" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647D6921-7141-47D3-9E32-4C1D1E70C5F7}">
+  <dimension ref="B1:I111"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B5" sqref="B5:B6"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A7:XFD21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="72.44140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="70.33203125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.21875" style="41" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="3.6640625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="79" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+    </row>
+    <row r="2" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="3" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="18"/>
+      <c r="F3" s="41">
+        <f>COUNTIF(F7:F56, "-")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="82"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="42">
+        <v>1</v>
+      </c>
+      <c r="G6" s="42">
+        <v>2</v>
+      </c>
+      <c r="H6" s="42">
+        <v>3</v>
+      </c>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="2:9" ht="129.6" x14ac:dyDescent="0.2">
+      <c r="B7" s="53">
+        <f t="shared" ref="B7:B55" si="0">ROW()-6</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="46"/>
+    </row>
+    <row r="8" spans="2:9" ht="115.2" x14ac:dyDescent="0.2">
+      <c r="B8" s="53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="49"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="2:9" ht="129.6" x14ac:dyDescent="0.2">
+      <c r="B9" s="53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="46"/>
+    </row>
+    <row r="10" spans="2:9" ht="129.6" x14ac:dyDescent="0.2">
+      <c r="B10" s="53">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="49"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="46"/>
+    </row>
+    <row r="11" spans="2:9" ht="144" x14ac:dyDescent="0.2">
+      <c r="B11" s="53">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="49"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="46"/>
+    </row>
+    <row r="12" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B12" s="53">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="46"/>
+    </row>
+    <row r="13" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B13" s="53">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B14" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B15" s="53">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B16" s="53">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B17" s="53">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B18" s="53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B19" s="53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B20" s="53">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B21" s="53">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B22" s="53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="23" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B23" s="53">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="46"/>
+    </row>
+    <row r="24" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B24" s="53">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B25" s="53">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C25" s="54"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="46"/>
+    </row>
+    <row r="26" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B26" s="53">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C26" s="54"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="46"/>
+    </row>
+    <row r="27" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B27" s="53">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="46"/>
+    </row>
+    <row r="28" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B28" s="53">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="46"/>
+    </row>
+    <row r="29" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B29" s="53">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="46"/>
+    </row>
+    <row r="30" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B30" s="53">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="46"/>
+    </row>
+    <row r="31" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B31" s="53">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="55"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B32" s="53">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="46"/>
+    </row>
+    <row r="33" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B33" s="53">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" s="49"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="46"/>
+    </row>
+    <row r="34" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B34" s="53">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="49"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="46"/>
+    </row>
+    <row r="35" spans="2:9" ht="57.6" x14ac:dyDescent="0.2">
+      <c r="B35" s="53">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="55"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="46"/>
+    </row>
+    <row r="36" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B36" s="53">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B37" s="53">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="46"/>
+    </row>
+    <row r="38" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B38" s="53">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C38" s="54"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B39" s="53">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B40" s="53">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C40" s="54"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="46"/>
+    </row>
+    <row r="41" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B41" s="53">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C41" s="54"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B42" s="53">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C42" s="54"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="46"/>
+    </row>
+    <row r="43" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B43" s="53">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="46"/>
+    </row>
+    <row r="44" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B44" s="53">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="46"/>
+    </row>
+    <row r="45" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B45" s="53">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C45" s="54"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="49"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="46"/>
+    </row>
+    <row r="46" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B46" s="53">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B47" s="53">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="46"/>
+    </row>
+    <row r="48" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B48" s="53">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="46"/>
+    </row>
+    <row r="49" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B49" s="53">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B50" s="53">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="46"/>
+    </row>
+    <row r="51" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B51" s="53">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="46"/>
+    </row>
+    <row r="52" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B52" s="53">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="49"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="59"/>
+      <c r="I52" s="46"/>
+    </row>
+    <row r="53" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B53" s="53">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="46"/>
+    </row>
+    <row r="54" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B54" s="53">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="2:9" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B55" s="53">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="46"/>
+    </row>
+    <row r="56" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="43">
+        <f t="shared" ref="B56" si="1">ROW()-6</f>
+        <v>50</v>
+      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="56"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="47"/>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="20"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20"/>
+    </row>
+    <row r="58" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="20"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="20"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="20"/>
+    </row>
+    <row r="60" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="20"/>
+    </row>
+    <row r="61" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="20"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="20"/>
+    </row>
+    <row r="62" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="20"/>
+    </row>
+    <row r="63" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="20"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="20"/>
+    </row>
+    <row r="64" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="20"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="20"/>
+    </row>
+    <row r="65" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="20"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="20"/>
+    </row>
+    <row r="66" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="20"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="20"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="20"/>
+    </row>
+    <row r="68" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="20"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="20"/>
+    </row>
+    <row r="69" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="20"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="20"/>
+    </row>
+    <row r="70" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="20"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="20"/>
+    </row>
+    <row r="71" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C71" s="20"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="20"/>
+    </row>
+    <row r="72" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" s="20"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="20"/>
+    </row>
+    <row r="73" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="20"/>
+    </row>
+    <row r="74" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" s="20"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" s="20"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="20"/>
+    </row>
+    <row r="76" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="20"/>
+    </row>
+    <row r="77" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" s="20"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="20"/>
+    </row>
+    <row r="78" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C78" s="20"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="20"/>
+    </row>
+    <row r="79" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C79" s="20"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="20"/>
+    </row>
+    <row r="80" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C80" s="20"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="20"/>
+    </row>
+    <row r="81" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="20"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="20"/>
+    </row>
+    <row r="82" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C82" s="20"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="20"/>
+    </row>
+    <row r="83" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C83" s="20"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="20"/>
+    </row>
+    <row r="84" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C84" s="20"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="20"/>
+    </row>
+    <row r="85" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C85" s="20"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="20"/>
+    </row>
+    <row r="86" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C86" s="20"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="20"/>
+    </row>
+    <row r="87" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C87" s="20"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="20"/>
+    </row>
+    <row r="88" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="20"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="20"/>
+    </row>
+    <row r="89" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="20"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="20"/>
+    </row>
+    <row r="90" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="20"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="20"/>
+    </row>
+    <row r="91" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="20"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="20"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="20"/>
+    </row>
+    <row r="93" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="20"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="20"/>
+    </row>
+    <row r="94" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="20"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="20"/>
+    </row>
+    <row r="95" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="20"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="20"/>
+    </row>
+    <row r="96" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="20"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="20"/>
+    </row>
+    <row r="97" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="20"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="20"/>
+    </row>
+    <row r="98" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C98" s="20"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="20"/>
+    </row>
+    <row r="99" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C99" s="20"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="20"/>
+    </row>
+    <row r="100" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C100" s="20"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="20"/>
+    </row>
+    <row r="101" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C101" s="20"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="20"/>
+    </row>
+    <row r="102" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C102" s="20"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="20"/>
+    </row>
+    <row r="103" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C103" s="20"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="20"/>
+    </row>
+    <row r="104" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C104" s="20"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="20"/>
+    </row>
+    <row r="105" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C105" s="20"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="20"/>
+    </row>
+    <row r="106" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C106" s="20"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="20"/>
+    </row>
+    <row r="107" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C107" s="20"/>
+      <c r="D107" s="21"/>
+      <c r="E107" s="20"/>
+    </row>
+    <row r="108" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C108" s="20"/>
+      <c r="D108" s="21"/>
+      <c r="E108" s="20"/>
+    </row>
+    <row r="109" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C109" s="20"/>
+      <c r="D109" s="21"/>
+      <c r="E109" s="20"/>
+    </row>
+    <row r="110" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C110" s="20"/>
+      <c r="D110" s="21"/>
+      <c r="E110" s="20"/>
+    </row>
+    <row r="111" spans="3:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C111" s="20"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="7">
